--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D198957-2266-402F-8212-DD0334CA1850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D22670-A494-4EE5-A8D4-92E851589F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24405" yWindow="15" windowWidth="25170" windowHeight="15270" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="211">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>"Hello Test"</t>
+  </si>
+  <si>
+    <t>HELLO</t>
   </si>
 </sst>
 </file>
@@ -700,9 +703,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,30 +1062,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>209</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
@@ -1086,28 +1093,28 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>190</v>
+      <c r="E3" s="3">
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+      <c r="E4" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1115,59 +1122,59 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -1175,7 +1182,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1187,38 +1194,38 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -1227,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1235,50 +1242,50 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
@@ -1287,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1295,10 +1302,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -1307,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1315,10 +1322,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -1327,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1335,10 +1342,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -1347,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1355,10 +1362,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -1367,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1375,10 +1382,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -1387,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1395,10 +1402,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1407,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
@@ -1415,10 +1422,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1427,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1435,10 +1442,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -1447,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1455,10 +1462,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1467,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1475,10 +1482,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
@@ -1487,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1495,10 +1502,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>31</v>
@@ -1507,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1515,10 +1522,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
@@ -1527,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
@@ -1535,10 +1542,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -1547,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1555,10 +1562,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
@@ -1567,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1575,10 +1582,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
@@ -1587,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1595,10 +1602,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
@@ -1607,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1615,10 +1622,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
@@ -1627,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1635,10 +1642,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
@@ -1647,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -1655,10 +1662,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
@@ -1667,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -1675,10 +1682,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
@@ -1687,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -1695,10 +1702,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
@@ -1707,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1715,10 +1722,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>31</v>
@@ -1727,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
@@ -1735,10 +1742,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
@@ -1747,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -1755,10 +1762,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
@@ -1767,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -1775,10 +1782,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>31</v>
@@ -1787,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -1795,10 +1802,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>31</v>
@@ -1807,7 +1814,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -1815,10 +1822,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>31</v>
@@ -1827,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -1835,10 +1842,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
@@ -1847,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -1855,10 +1862,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>31</v>
@@ -1867,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -1875,10 +1882,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>31</v>
@@ -1887,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -1895,10 +1902,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>31</v>
@@ -1907,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -1915,10 +1922,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>31</v>
@@ -1927,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -1935,10 +1942,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>31</v>
@@ -1947,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -1955,10 +1962,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>31</v>
@@ -1967,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -1975,10 +1982,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>31</v>
@@ -1987,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -1995,10 +2002,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>31</v>
@@ -2007,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2015,10 +2022,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>31</v>
@@ -2027,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2035,10 +2042,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>31</v>
@@ -2047,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -2055,10 +2062,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>31</v>
@@ -2067,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2075,10 +2082,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>31</v>
@@ -2087,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2095,10 +2102,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>31</v>
@@ -2107,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2115,10 +2122,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>31</v>
@@ -2127,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2135,10 +2142,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -2147,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
@@ -2155,10 +2162,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
@@ -2167,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2175,10 +2182,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
@@ -2187,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2195,10 +2202,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -2207,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2215,10 +2222,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
@@ -2227,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2235,21 +2242,41 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D22670-A494-4EE5-A8D4-92E851589F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB848935-2745-4123-9C85-F2026BB7A7E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="309">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -115,12 +115,6 @@
     <t>get_sru2020("Taux de LLS à atteindre", CODE_INSEE, rounding=2)</t>
   </si>
   <si>
-    <t>REGREG</t>
-  </si>
-  <si>
-    <t>int(REG)</t>
-  </si>
-  <si>
     <t>projectionsREG["Unnamed: 39"][ REG ] * 1000</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>Test2 Diagnostic2</t>
   </si>
   <si>
@@ -655,9 +646,6 @@
     <t>En Paca</t>
   </si>
   <si>
-    <t>P08_POP&gt;15000</t>
-  </si>
-  <si>
     <t>Test Population</t>
   </si>
   <si>
@@ -668,13 +656,319 @@
   </si>
   <si>
     <t>HELLO</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>MessageSiVrai</t>
+  </si>
+  <si>
+    <t>MessageSiFaux</t>
+  </si>
+  <si>
+    <t>Test Diagnostic Failed</t>
+  </si>
+  <si>
+    <t>SRU_CARENCE_2017</t>
+  </si>
+  <si>
+    <t>Carence en 2017</t>
+  </si>
+  <si>
+    <t>round0(SRU_RP_2017 * (0.25 - SRU_TX_LLS_2017), 4)</t>
+  </si>
+  <si>
+    <t>SRU_MOD3565_2017</t>
+  </si>
+  <si>
+    <t>SRU_MOD3565_2020</t>
+  </si>
+  <si>
+    <t>SRU_MOD3565_CARENCE</t>
+  </si>
+  <si>
+    <t>Logements a Construire en Modele 35%/65% pour combler la carence SRU</t>
+  </si>
+  <si>
+    <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2020</t>
+  </si>
+  <si>
+    <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2017</t>
+  </si>
+  <si>
+    <t>SRU_EVOLUTION_CARENCE</t>
+  </si>
+  <si>
+    <t>SRU_EVOLUTION_EN_RP</t>
+  </si>
+  <si>
+    <t>Evolution du nombre de RP entre 2017 et 2020</t>
+  </si>
+  <si>
+    <t>Evolution de la carence SRU 2017 et 2020</t>
+  </si>
+  <si>
+    <t>round(SRU_OBJ_2020_2022/35*100, 0)</t>
+  </si>
+  <si>
+    <t>round(SRU_OBJ_2017_2019/35*100, 0)</t>
+  </si>
+  <si>
+    <t>round(SRU_RP_2020-SRU_RP_2017, 0)</t>
+  </si>
+  <si>
+    <t>round((SRU_RP_2020 -SRU_RP_2017) * 0.25, 0)</t>
+  </si>
+  <si>
+    <t>round(SRU_CARENCE_2020/35*100, 0)</t>
+  </si>
+  <si>
+    <t>SRU_LOGEMENTS_SRU_CONSTRUITS</t>
+  </si>
+  <si>
+    <t>Logements SRU Construits</t>
+  </si>
+  <si>
+    <t>round(SRU_CARENCE_2017 + SRU_EVOLUTION_CARENCE - SRU_CARENCE_2020, 0)</t>
+  </si>
+  <si>
+    <t># Calculs Sur Base des Donnees SRU</t>
+  </si>
+  <si>
+    <t># Extraction des Donnees Sitadel Locaux</t>
+  </si>
+  <si>
+    <t>SRU_EN_CARENCE</t>
+  </si>
+  <si>
+    <t>Nombre de Communes en Carence.</t>
+  </si>
+  <si>
+    <t>1 if (SRU_CARENCE_2020 &gt; 0) else 0</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_ARTIFICIALISATION</t>
+  </si>
+  <si>
+    <t>artificialisationSourcePage</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>sru2020SourcePage</t>
+  </si>
+  <si>
+    <t>sitadelSourcePage</t>
+  </si>
+  <si>
+    <t>metaDossierSourcePage</t>
+  </si>
+  <si>
+    <t>projectionsSourcePage</t>
+  </si>
+  <si>
+    <t>projectionsPacaSourcePage</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_SRU</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_SITADEL</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_PROJECTIONS</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_COMMUNES</t>
+  </si>
+  <si>
+    <t>URL_SOURCE_PROJECTIONS_PACA</t>
+  </si>
+  <si>
+    <t>Dossier Omphale - Projections Paca</t>
+  </si>
+  <si>
+    <t>Dossier Insee - Projections 2050</t>
+  </si>
+  <si>
+    <t>Dossier Insee - Donnees Communes</t>
+  </si>
+  <si>
+    <t>Dossier Sitadel - Logements Construits</t>
+  </si>
+  <si>
+    <t>Dossier Dreal - Logements Sociaux</t>
+  </si>
+  <si>
+    <t>Dossier Cerema - Artificialisation</t>
+  </si>
+  <si>
+    <t># Sources des Donnees</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>Latitude Commune</t>
+  </si>
+  <si>
+    <t>Longitude Commune</t>
+  </si>
+  <si>
+    <t>get_gps_lat_insee(CODE_INSEE)</t>
+  </si>
+  <si>
+    <t>get_gps_long_insee(CODE_INSEE)</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte</t>
+  </si>
+  <si>
+    <t>URL_CARTE</t>
+  </si>
+  <si>
+    <t>"https://www.geoportail.gouv.fr/embed/visu.html?c="+LONGITUDE+","+LATITUDE+"&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes"</t>
+  </si>
+  <si>
+    <t>URL_CARTE_ADMINISTRATIVE</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte Administrative</t>
+  </si>
+  <si>
+    <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes"</t>
+  </si>
+  <si>
+    <t>URL_CARTE_URBANISME</t>
+  </si>
+  <si>
+    <t>URL_CARTE_SITADEL</t>
+  </si>
+  <si>
+    <t>URL_CARTE_VIGIBATI</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte Geoportail Urbanisme</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte Sitadel Vigibati</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte Sitadel Koumoul</t>
+  </si>
+  <si>
+    <t>"https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon="+LONGITUDE+"&amp;lat="+LATITUDE+"&amp;zoom=13&amp;mlon="+LONGITUDE+"&amp;mlat="+LATITUDE+""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true" </t>
+  </si>
+  <si>
+    <t>"https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx="+LONGITUDE+"&amp;location.tx="+LONGITUDE+"&amp;location.fy="+LATITUDE+"&amp;location.ty="+LATITUDE+""</t>
+  </si>
+  <si>
+    <t>URL_CARTE_LOGEMENT_SOCIAL</t>
+  </si>
+  <si>
+    <t>Lien pour la Carte Logement Social</t>
+  </si>
+  <si>
+    <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes"</t>
+  </si>
+  <si>
+    <t>Comment ca c'est pas 11 ?</t>
+  </si>
+  <si>
+    <t>P08_POP&gt;20000</t>
+  </si>
+  <si>
+    <t>Commune de plus de 20000 Habitants</t>
+  </si>
+  <si>
+    <t>Commune de moins de 20000 Habitants</t>
+  </si>
+  <si>
+    <t>Comment ca c'est pas PACA ?</t>
+  </si>
+  <si>
+    <t>Carence SRU</t>
+  </si>
+  <si>
+    <t>CARENCE_SRU</t>
+  </si>
+  <si>
+    <t>Commune en Carence SRU</t>
+  </si>
+  <si>
+    <t>Pas de Carence SRU</t>
+  </si>
+  <si>
+    <t>SRU_EN_CARENCE==0</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>LOG_VACANTS</t>
+  </si>
+  <si>
+    <t>ARTIFICIALISATION</t>
+  </si>
+  <si>
+    <t>Artificialisation ces 10 dernieres annees</t>
+  </si>
+  <si>
+    <t>Logements Vacants</t>
+  </si>
+  <si>
+    <t>LOG_SECONDAIRES</t>
+  </si>
+  <si>
+    <t>Residences Secondaires</t>
+  </si>
+  <si>
+    <t>Taux de Residences Secondaires - moins de 20%</t>
+  </si>
+  <si>
+    <t>Taux de Residences Secondaires - plus de 20%</t>
+  </si>
+  <si>
+    <t>TX_RES_SEC_18&lt;0.20</t>
+  </si>
+  <si>
+    <t>TX_RES_VAC_18&lt;0.50</t>
+  </si>
+  <si>
+    <t>Taux de Residences Vacantes - moins de 5%</t>
+  </si>
+  <si>
+    <t>Taux de Residences Vacantes - plus de 5%</t>
+  </si>
+  <si>
+    <t>ART_POURCENT&lt;1</t>
+  </si>
+  <si>
+    <t>Plus de 1% d'Artificialisation en 10 ans</t>
+  </si>
+  <si>
+    <t>Moins de 1% d'Artificialisation en 10 ans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +976,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -700,18 +1008,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,10 +1375,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -1074,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -1114,127 +1427,156 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1242,19 +1584,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1262,299 +1604,268 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>146</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>148</v>
+        <v>18</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1562,19 +1873,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1582,19 +1893,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1602,19 +1913,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1622,19 +1933,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1642,19 +1953,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -1662,19 +1973,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -1682,19 +1993,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -1702,19 +2013,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1722,19 +2033,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
@@ -1742,19 +2053,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -1762,19 +2073,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -1782,19 +2093,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -1802,19 +2113,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -1822,19 +2133,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -1842,19 +2153,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -1862,19 +2173,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -1882,19 +2193,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -1902,19 +2213,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -1922,19 +2233,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -1942,19 +2253,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -1962,19 +2273,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -1982,19 +2293,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2002,19 +2313,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2022,19 +2333,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2042,19 +2353,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -2062,19 +2373,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2082,19 +2393,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2102,19 +2413,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2122,19 +2433,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2142,19 +2453,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
@@ -2162,19 +2473,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2182,19 +2493,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2202,19 +2513,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2222,19 +2533,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2242,19 +2553,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2262,128 +2573,698 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" display="https://www.geoportail.gouv.fr/embed/visu.html?c=6.99508,43.5991&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes" xr:uid="{4BDD3349-ED70-4F61-80AE-F0A337B35369}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0349488-3DAE-45F7-96D8-0AB11390E82F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="102.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6">
-        <v>15000</v>
-      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB848935-2745-4123-9C85-F2026BB7A7E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE480D6-70F9-482E-909E-82732C496F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -892,12 +892,6 @@
     <t>P08_POP&gt;20000</t>
   </si>
   <si>
-    <t>Commune de plus de 20000 Habitants</t>
-  </si>
-  <si>
-    <t>Commune de moins de 20000 Habitants</t>
-  </si>
-  <si>
     <t>Comment ca c'est pas PACA ?</t>
   </si>
   <si>
@@ -962,6 +956,84 @@
   </si>
   <si>
     <t>Moins de 1% d'Artificialisation en 10 ans</t>
+  </si>
+  <si>
+    <t>URL_STATISTIQUES_INSEE</t>
+  </si>
+  <si>
+    <t>Lien des Statistiques INSEE</t>
+  </si>
+  <si>
+    <t>DIAG</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>"https://www.insee.fr/fr/statistiques"+""</t>
+  </si>
+  <si>
+    <t>"Commune de plus de 20000 Habitants : " + round0str(P08_POP)</t>
+  </si>
+  <si>
+    <t>"Commune de moins de 20000 Habitants : " +  round0str(P08_POP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Categories : TEST / SRU / ART / LOG / HIST / PROJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Types : TEST / DIAG / NOTE </t>
+  </si>
+  <si>
+    <t># Les Messages doivent commencer par " si ils contiennent des variables (ex : "Commune de plus de 20000 Habitants : " + round0str(P08_POP))</t>
+  </si>
+  <si>
+    <t>POP_EVOL_0813</t>
+  </si>
+  <si>
+    <t>POP_EVOL_1318</t>
+  </si>
+  <si>
+    <t>Evolution de la popilation en nombre de 2008 a 2013</t>
+  </si>
+  <si>
+    <t>Evolution de la popilation en nombre de 2013 a 2018</t>
+  </si>
+  <si>
+    <t>P13_POP - P08_POP</t>
+  </si>
+  <si>
+    <t>P18_POP - P13_POP</t>
+  </si>
+  <si>
+    <t>C08_HORS_MEN</t>
+  </si>
+  <si>
+    <t>Population Hors Menages en 2008</t>
+  </si>
+  <si>
+    <t>C13_HORS_MEN</t>
+  </si>
+  <si>
+    <t>C18_HORS_MEN</t>
+  </si>
+  <si>
+    <t>Population Hors Menages en 2013</t>
+  </si>
+  <si>
+    <t>Population Hors Menages en 2018</t>
+  </si>
+  <si>
+    <t>P18_POP - C18_PMEN</t>
+  </si>
+  <si>
+    <t>P08_POP - C08_PMEN</t>
+  </si>
+  <si>
+    <t>P13_POP - C13_PMEN</t>
+  </si>
+  <si>
+    <t>"https://vigibati.fr/?commune.f=%3D"+NOM_COMMUNE+"%20-%20"+CODE_POSTAL+"&amp;map.z=14&amp;map.c=12022302133321312221211&amp;map.f=0"</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1057,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +1067,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
@@ -1022,6 +1100,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>258</v>
       </c>
@@ -1702,7 +1782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>259</v>
       </c>
@@ -1722,7 +1802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>266</v>
       </c>
@@ -1742,7 +1822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -1762,7 +1842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>271</v>
       </c>
@@ -1782,7 +1862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>272</v>
       </c>
@@ -1802,7 +1882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>273</v>
       </c>
@@ -1816,13 +1896,16 @@
         <v>18</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>280</v>
       </c>
@@ -1842,70 +1925,81 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1913,19 +2007,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1933,70 +2027,39 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>29</v>
@@ -2005,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -2013,10 +2076,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>29</v>
@@ -2025,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2033,10 +2096,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>29</v>
@@ -2045,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
@@ -2053,10 +2116,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>29</v>
@@ -2065,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -2073,10 +2136,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -2085,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -2093,10 +2156,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
@@ -2105,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -2113,10 +2176,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
@@ -2125,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -2133,10 +2196,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -2145,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -2153,10 +2216,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
@@ -2165,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2173,10 +2236,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>29</v>
@@ -2185,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -2193,10 +2256,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>29</v>
@@ -2205,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2213,10 +2276,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
@@ -2225,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -2233,10 +2296,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -2245,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -2253,10 +2316,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>29</v>
@@ -2265,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2273,10 +2336,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>29</v>
@@ -2285,7 +2348,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -2293,10 +2356,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>29</v>
@@ -2305,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2313,10 +2376,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>29</v>
@@ -2325,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2333,10 +2396,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>29</v>
@@ -2345,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2353,10 +2416,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>29</v>
@@ -2365,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -2373,10 +2436,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>29</v>
@@ -2385,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2393,10 +2456,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>29</v>
@@ -2405,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2413,10 +2476,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>29</v>
@@ -2425,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2433,10 +2496,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>29</v>
@@ -2445,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2453,10 +2516,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>29</v>
@@ -2465,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
@@ -2473,10 +2536,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>29</v>
@@ -2485,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2493,10 +2556,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>29</v>
@@ -2505,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2513,10 +2576,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>29</v>
@@ -2525,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2533,10 +2596,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>29</v>
@@ -2545,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2553,10 +2616,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>29</v>
@@ -2565,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2573,10 +2636,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>29</v>
@@ -2585,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
@@ -2593,10 +2656,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>29</v>
@@ -2605,7 +2668,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
@@ -2613,10 +2676,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
@@ -2625,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
@@ -2633,10 +2696,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>29</v>
@@ -2645,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -2653,10 +2716,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>29</v>
@@ -2665,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>10</v>
@@ -2673,10 +2736,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>29</v>
@@ -2685,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>10</v>
@@ -2693,10 +2756,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>29</v>
@@ -2705,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -2713,10 +2776,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>29</v>
@@ -2725,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
@@ -2733,10 +2796,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>29</v>
@@ -2745,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -2753,10 +2816,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>29</v>
@@ -2765,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>10</v>
@@ -2773,10 +2836,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>29</v>
@@ -2785,7 +2848,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -2793,10 +2856,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>29</v>
@@ -2805,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -2813,10 +2876,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>29</v>
@@ -2825,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -2833,10 +2896,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>29</v>
@@ -2845,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -2853,10 +2916,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>29</v>
@@ -2865,7 +2928,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -2873,10 +2936,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>29</v>
@@ -2885,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -2893,10 +2956,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>29</v>
@@ -2905,366 +2968,591 @@
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E84" s="5"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E22" r:id="rId1" display="https://www.geoportail.gouv.fr/embed/visu.html?c=6.99508,43.5991&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes" xr:uid="{4BDD3349-ED70-4F61-80AE-F0A337B35369}"/>
+    <hyperlink ref="E28" r:id="rId2" display="https://www.insee.fr/fr/statistiques" xr:uid="{6B89BFC2-B73B-4161-8A4F-97B654CDBC88}"/>
+    <hyperlink ref="E26" r:id="rId3" display="https://vigibati.fr/?commune.f=%3D+&quot;NOM_COMMUNE&quot;+%20-%20+&quot;CODE_POSTAL&quot;+&amp;map.z=14&amp;map.c=12022302133321312221211&amp;map.f=0" xr:uid="{EA4B0B3A-3B29-4500-B0DF-60C9ED2D21EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0349488-3DAE-45F7-96D8-0AB11390E82F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="102.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
         <v>284</v>
       </c>
-      <c r="E6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G10" t="s">
         <v>288</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE480D6-70F9-482E-909E-82732C496F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFA409-4C9F-48B9-8401-9C429E5EC1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="4740" yWindow="630" windowWidth="18600" windowHeight="13455" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="342">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -1034,6 +1034,33 @@
   </si>
   <si>
     <t>"https://vigibati.fr/?commune.f=%3D"+NOM_COMMUNE+"%20-%20"+CODE_POSTAL+"&amp;map.z=14&amp;map.c=12022302133321312221211&amp;map.f=0"</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CSV</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_JSON</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_XLSX</t>
+  </si>
+  <si>
+    <t>Data CSV File</t>
+  </si>
+  <si>
+    <t>Data Excel File</t>
+  </si>
+  <si>
+    <t>Data Json File</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+".csv"</t>
+  </si>
+  <si>
+    <t>"output/"+str(BASE_NAME)+"_c.json"</t>
+  </si>
+  <si>
+    <t>"output/"+str(BASE_NAME)+".xlsx"</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,101 +2072,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="5"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -2148,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -2156,10 +2163,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
@@ -2168,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -2176,10 +2183,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
@@ -2188,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -2196,10 +2203,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -2208,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -2216,10 +2223,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
@@ -2228,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2236,10 +2243,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>29</v>
@@ -2248,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -2256,10 +2263,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>29</v>
@@ -2268,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2276,10 +2283,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
@@ -2288,7 +2295,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -2296,10 +2303,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -2308,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -2316,10 +2323,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>29</v>
@@ -2328,7 +2335,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2336,10 +2343,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>29</v>
@@ -2348,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -2356,10 +2363,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>29</v>
@@ -2368,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2376,10 +2383,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>29</v>
@@ -2388,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2396,10 +2403,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>29</v>
@@ -2408,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2416,10 +2423,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>29</v>
@@ -2428,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -2436,10 +2443,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>29</v>
@@ -2448,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2456,10 +2463,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>29</v>
@@ -2468,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2476,10 +2483,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>29</v>
@@ -2488,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2496,10 +2503,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>29</v>
@@ -2508,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2516,10 +2523,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>29</v>
@@ -2528,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
@@ -2536,10 +2543,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>29</v>
@@ -2548,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2556,10 +2563,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>29</v>
@@ -2568,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2576,10 +2583,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>29</v>
@@ -2588,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2596,10 +2603,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>29</v>
@@ -2608,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2616,10 +2623,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>29</v>
@@ -2628,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2636,10 +2643,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>29</v>
@@ -2648,7 +2655,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
@@ -2656,10 +2663,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>29</v>
@@ -2668,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
@@ -2676,10 +2683,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
@@ -2688,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
@@ -2696,10 +2703,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>29</v>
@@ -2708,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -2716,10 +2723,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>29</v>
@@ -2728,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>10</v>
@@ -2736,10 +2743,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>29</v>
@@ -2748,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>10</v>
@@ -2756,10 +2763,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>29</v>
@@ -2768,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -2776,10 +2783,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>29</v>
@@ -2788,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
@@ -2796,10 +2803,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>29</v>
@@ -2808,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -2816,10 +2823,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>29</v>
@@ -2828,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>10</v>
@@ -2836,10 +2843,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>29</v>
@@ -2848,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -2856,10 +2863,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>29</v>
@@ -2868,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -2876,10 +2883,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>29</v>
@@ -2888,7 +2895,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -2896,10 +2903,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>29</v>
@@ -2908,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -2916,10 +2923,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>29</v>
@@ -2928,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -2936,10 +2943,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>29</v>
@@ -2948,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -2956,10 +2963,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>29</v>
@@ -2968,7 +2975,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -2976,10 +2983,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>29</v>
@@ -2988,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -2996,10 +3003,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>29</v>
@@ -3008,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3016,10 +3023,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>29</v>
@@ -3028,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3036,10 +3043,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>29</v>
@@ -3048,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3056,10 +3063,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>29</v>
@@ -3068,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3076,10 +3083,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>29</v>
@@ -3088,7 +3095,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3096,10 +3103,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>29</v>
@@ -3108,104 +3115,104 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E91" s="5"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>245</v>
@@ -3214,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>19</v>
@@ -3222,10 +3229,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>245</v>
@@ -3234,9 +3241,89 @@
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFA409-4C9F-48B9-8401-9C429E5EC1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F97ED-AD0C-495C-80A9-73C396419E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="630" windowWidth="18600" windowHeight="13455" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="354">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -1054,13 +1054,49 @@
     <t>Data Json File</t>
   </si>
   <si>
+    <t>"output/"+BASE_NAME+".xlsx"</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+"_c.json"</t>
+  </si>
+  <si>
     <t>"output/"+BASE_NAME+".csv"</t>
   </si>
   <si>
-    <t>"output/"+str(BASE_NAME)+"_c.json"</t>
-  </si>
-  <si>
-    <t>"output/"+str(BASE_NAME)+".xlsx"</t>
+    <t>Graphique Logements</t>
+  </si>
+  <si>
+    <t>Graphique Population</t>
+  </si>
+  <si>
+    <t>Graphique Taille des Menages</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+"_Logements.png"</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+"_Taille_des_Menages.png"</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+"_Population.png"</t>
+  </si>
+  <si>
+    <t>GRAPHIQUE_LOGEMENTS</t>
+  </si>
+  <si>
+    <t>GRAPHIQUE_POPULATION</t>
+  </si>
+  <si>
+    <t>GRAPHIQUE_TAILLE_DES_MENAGES</t>
+  </si>
+  <si>
+    <t>Projection du Nombre Total de logements realises en 2021</t>
+  </si>
+  <si>
+    <t>PROJ_LOG_REALISES_2021</t>
+  </si>
+  <si>
+    <t>round0(NB_LGT_TOT_COMMENCES_1316+NB_LGT_TOT_CREES_1721*NB_LGT_TX_REALISATION_1316)</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,10 +2122,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,107 +2162,87 @@
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>343</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>135</v>
+        <v>347</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
@@ -2235,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2243,10 +2259,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>29</v>
@@ -2255,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -2263,10 +2279,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>29</v>
@@ -2275,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2283,10 +2299,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
@@ -2295,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -2303,10 +2319,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -2315,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -2323,10 +2339,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>29</v>
@@ -2335,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2343,10 +2359,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>29</v>
@@ -2355,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -2363,10 +2379,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>29</v>
@@ -2375,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2383,10 +2399,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>29</v>
@@ -2395,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2403,10 +2419,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>29</v>
@@ -2415,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2423,10 +2439,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>29</v>
@@ -2435,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -2443,10 +2459,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>29</v>
@@ -2455,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2463,10 +2479,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>29</v>
@@ -2475,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2483,10 +2499,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>29</v>
@@ -2495,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2503,10 +2519,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>29</v>
@@ -2515,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2523,10 +2539,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>29</v>
@@ -2535,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
@@ -2543,10 +2559,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>29</v>
@@ -2555,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2563,10 +2579,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>29</v>
@@ -2575,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2583,10 +2599,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>29</v>
@@ -2595,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2603,10 +2619,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>29</v>
@@ -2615,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2623,10 +2639,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>29</v>
@@ -2635,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2643,10 +2659,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>29</v>
@@ -2655,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
@@ -2663,10 +2679,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>29</v>
@@ -2675,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
@@ -2683,10 +2699,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
@@ -2695,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
@@ -2703,10 +2719,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>29</v>
@@ -2715,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -2723,10 +2739,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>29</v>
@@ -2735,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>10</v>
@@ -2743,10 +2759,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>29</v>
@@ -2755,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>10</v>
@@ -2763,10 +2779,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>29</v>
@@ -2775,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -2783,10 +2799,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>29</v>
@@ -2795,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
@@ -2803,10 +2819,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>29</v>
@@ -2815,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -2823,10 +2839,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>29</v>
@@ -2835,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>10</v>
@@ -2843,10 +2859,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>29</v>
@@ -2855,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -2863,10 +2879,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>29</v>
@@ -2875,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -2883,10 +2899,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>29</v>
@@ -2895,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -2903,10 +2919,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>29</v>
@@ -2915,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -2923,10 +2939,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>29</v>
@@ -2935,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -2943,10 +2959,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>29</v>
@@ -2955,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -2963,10 +2979,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>29</v>
@@ -2975,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -2983,10 +2999,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>29</v>
@@ -2995,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3003,10 +3019,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>29</v>
@@ -3015,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3023,10 +3039,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>29</v>
@@ -3035,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3043,10 +3059,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>29</v>
@@ -3055,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3063,10 +3079,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>29</v>
@@ -3075,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3083,10 +3099,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>29</v>
@@ -3095,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3103,10 +3119,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>29</v>
@@ -3115,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3123,10 +3139,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>29</v>
@@ -3135,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3143,10 +3159,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>29</v>
@@ -3155,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>10</v>
@@ -3163,10 +3179,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>29</v>
@@ -3175,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3183,10 +3199,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>29</v>
@@ -3195,124 +3211,121 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="5"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>245</v>
@@ -3321,9 +3334,109 @@
         <v>18</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F97ED-AD0C-495C-80A9-73C396419E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9384ABB-2084-4B61-9F90-63F5243E4151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="630" windowWidth="18600" windowHeight="13455" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="1950" yWindow="1920" windowWidth="18600" windowHeight="13455" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="357">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -1097,6 +1097,15 @@
   </si>
   <si>
     <t>round0(NB_LGT_TOT_COMMENCES_1316+NB_LGT_TOT_CREES_1721*NB_LGT_TX_REALISATION_1316)</t>
+  </si>
+  <si>
+    <t>THEME_COLOR</t>
+  </si>
+  <si>
+    <t>Couleur des Graphiques</t>
+  </si>
+  <si>
+    <t>str("#008080")</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,6 +3313,9 @@
       <c r="B99" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
@@ -3437,6 +3449,26 @@
         <v>244</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9384ABB-2084-4B61-9F90-63F5243E4151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D666568-F533-48AA-A580-E76978BCDAEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1920" windowWidth="18600" windowHeight="13455" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ADFA1E-ED35-4EF2-A5AD-81E665F62902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE35DB-0B26-4B41-A476-A2364809BCBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11253" uniqueCount="6673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11259" uniqueCount="6676">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -20068,6 +20068,15 @@
   </si>
   <si>
     <t>"https://www.google.com/search?q=cannes+pays+de+lerins"+""</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>GOOGLE_TRACKER</t>
+  </si>
+  <si>
+    <t>"output/"+BASE_NAME+"_tracker.html"</t>
   </si>
 </sst>
 </file>
@@ -20156,14 +20165,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -20178,7 +20180,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20218,11 +20227,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{056FD16A-59B7-4806-B899-D827F3301C0F}" name="meta_dossier_complet" displayName="meta_dossier_complet" ref="B1:F1891" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:F1891" xr:uid="{04D0FE3E-B1D6-4BD0-BF30-25780F7E2A9A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="0">
       <calculatedColumnFormula>"dossierComplet['"&amp;meta_dossier_complet[[#This Row],[COD_VAR]]&amp;"'][code_insee]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20529,8 +20538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
   <dimension ref="A1:AD333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20731,6 +20740,26 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6674</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6673</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6675</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6675</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -61494,7 +61523,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="notEqual">

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE35DB-0B26-4B41-A476-A2364809BCBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D324B68-978B-4A47-91AF-385BF0981919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="25080" yWindow="-495" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
-    <sheet name="Diagnostic" sheetId="2" r:id="rId2"/>
-    <sheet name="MetaDossierINSEE" sheetId="4" r:id="rId3"/>
-    <sheet name="CSV" sheetId="5" r:id="rId4"/>
+    <sheet name="Calculs" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="Diagnostic" sheetId="2" r:id="rId4"/>
+    <sheet name="MetaDossierINSEE" sheetId="4" r:id="rId5"/>
+    <sheet name="CSV" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MetaDossierINSEE!$A$1:$A$1891</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">MetaDossierINSEE!$B$1:$E$1891</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MetaDossierINSEE!$A$1:$A$1891</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">MetaDossierINSEE!$B$1:$E$1891</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11259" uniqueCount="6676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11323" uniqueCount="6715">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -20034,15 +20036,6 @@
     <t>GRAPHIQUE_REPARTITION_DES_LOGEMENTS</t>
   </si>
   <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>This is a Blue Note</t>
-  </si>
-  <si>
-    <t>This is not a Blue Note</t>
-  </si>
-  <si>
     <t>URL_VILLE_DATA</t>
   </si>
   <si>
@@ -20077,6 +20070,132 @@
   </si>
   <si>
     <t>"output/"+BASE_NAME+"_tracker.html"</t>
+  </si>
+  <si>
+    <t>Expr</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>NB_LOG_SECONDAIRES</t>
+  </si>
+  <si>
+    <t>Nombre de Residences Secondaires</t>
+  </si>
+  <si>
+    <t># Test Calculs</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>CALCUL_HELLO</t>
+  </si>
+  <si>
+    <t>CALCUL_TEST</t>
+  </si>
+  <si>
+    <t>CALCUL_TEST2</t>
+  </si>
+  <si>
+    <t>CALCULS</t>
+  </si>
+  <si>
+    <t>CALCUL_TEST + 5</t>
+  </si>
+  <si>
+    <t>Salut</t>
+  </si>
+  <si>
+    <t>Bizes</t>
+  </si>
+  <si>
+    <t>Kisses</t>
+  </si>
+  <si>
+    <t>Math.round(CALCUL_TEST2 +2.5)</t>
+  </si>
+  <si>
+    <t>round0(CALCUL_TEST2 +2.5)</t>
+  </si>
+  <si>
+    <t>CALCUL_TEST3</t>
+  </si>
+  <si>
+    <t>And Round</t>
+  </si>
+  <si>
+    <t>xlabel</t>
+  </si>
+  <si>
+    <t>ylabel</t>
+  </si>
+  <si>
+    <t>legende</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>xval</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>linestyle</t>
+  </si>
+  <si>
+    <t>ylim</t>
+  </si>
+  <si>
+    <t>(1, 3)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>PIE, DONUT, LINES</t>
+  </si>
+  <si>
+    <t>Logements</t>
+  </si>
+  <si>
+    <t>Annees</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>[2001,2002,20023]</t>
+  </si>
+  <si>
+    <t>"--"</t>
+  </si>
+  <si>
+    <t>linewith</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>LOGEMENTS</t>
+  </si>
+  <si>
+    <t>yval</t>
+  </si>
+  <si>
+    <t>graphique</t>
+  </si>
+  <si>
+    <t>Historique</t>
   </si>
 </sst>
 </file>
@@ -20165,7 +20284,14 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -20180,14 +20306,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20227,11 +20346,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{056FD16A-59B7-4806-B899-D827F3301C0F}" name="meta_dossier_complet" displayName="meta_dossier_complet" ref="B1:F1891" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:F1891" xr:uid="{04D0FE3E-B1D6-4BD0-BF30-25780F7E2A9A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="1">
       <calculatedColumnFormula>"dossierComplet['"&amp;meta_dossier_complet[[#This Row],[COD_VAR]]&amp;"'][code_insee]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20538,8 +20657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
   <dimension ref="A1:AD333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20548,7 +20667,7 @@
     <col min="2" max="2" width="64.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="92.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -20566,7 +20685,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6673</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -20744,10 +20863,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6674</v>
+        <v>6671</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6673</v>
+        <v>6670</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>263</v>
@@ -20756,10 +20875,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6675</v>
+        <v>6672</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6675</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -21316,10 +21435,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6664</v>
+        <v>6661</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>6666</v>
+        <v>6663</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>263</v>
@@ -21328,7 +21447,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>6670</v>
+        <v>6667</v>
       </c>
       <c r="F45" t="s">
         <v>499</v>
@@ -21339,10 +21458,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>6665</v>
+        <v>6662</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>6667</v>
+        <v>6664</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>263</v>
@@ -21351,7 +21470,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>6671</v>
+        <v>6668</v>
       </c>
       <c r="F46" t="s">
         <v>499</v>
@@ -21362,10 +21481,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>6668</v>
+        <v>6665</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6669</v>
+        <v>6666</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>263</v>
@@ -21374,7 +21493,7 @@
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>6672</v>
+        <v>6669</v>
       </c>
       <c r="F47" t="s">
         <v>499</v>
@@ -26945,18 +27064,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9E446-5949-439E-A08E-DCE51A22B5ED}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6678</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6679</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6677</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6680</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6680</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6683</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6681</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6681</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6683</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6682</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6683</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6684</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6684</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6690</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6683</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6689</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6688</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747E1BE-60D7-4409-8919-38A5C0D9E1EF}">
+  <dimension ref="A3:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6702</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6692</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6693</v>
+      </c>
+      <c r="E3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6694</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6711</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6705</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6704</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6703</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6704</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6696</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6698</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6697</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6712</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6699</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6709</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6695</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6707</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6706</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6708</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6714</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6707</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6706</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6708</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0349488-3DAE-45F7-96D8-0AB11390E82F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
@@ -27309,25 +27717,27 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>295</v>
+        <v>6675</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6661</v>
+        <v>6674</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>6662</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6663</v>
+        <v>6676</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>D20</f>
+        <v>Nombre de Residences Secondaires</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>F20</f>
+        <v>Nombre de Residences Secondaires</v>
       </c>
     </row>
   </sheetData>
@@ -27336,7 +27746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5171403D-6F6A-4E69-8E01-E4673EFD4B00}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1891"/>
@@ -61523,7 +61933,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="notEqual">
@@ -61538,7 +61948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570FBCD8-A26D-4C74-9692-F1C5C44A87D2}">
   <dimension ref="C3:I292"/>
   <sheetViews>

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D324B68-978B-4A47-91AF-385BF0981919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E8C42-613B-4F13-B610-4742B09D59F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-495" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">MetaDossierINSEE!$B$1:$E$1891</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20284,14 +20285,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -20306,7 +20300,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20346,11 +20347,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{056FD16A-59B7-4806-B899-D827F3301C0F}" name="meta_dossier_complet" displayName="meta_dossier_complet" ref="B1:F1891" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:F1891" xr:uid="{04D0FE3E-B1D6-4BD0-BF30-25780F7E2A9A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="0">
       <calculatedColumnFormula>"dossierComplet['"&amp;meta_dossier_complet[[#This Row],[COD_VAR]]&amp;"'][code_insee]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -27214,6 +27215,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27221,7 +27223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747E1BE-60D7-4409-8919-38A5C0D9E1EF}">
   <dimension ref="A3:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -27751,7 +27753,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1891"/>
   <sheetViews>
-    <sheetView topLeftCell="D1485" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1485" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F1493"/>
     </sheetView>
   </sheetViews>
@@ -61933,7 +61935,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="notEqual">

--- a/input/Configuration.xlsx
+++ b/input/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheuse\PycharmProjects\consommationFonciere\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF73167-0129-4C5D-A65C-BC9B908E42E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D362198-EA21-458B-8D91-6A1DF66B6E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{A4BCA45A-5D26-4ED4-AC7E-11DA55313B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">MetaDossierINSEE!$B$1:$E$1891</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11566" uniqueCount="6855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11568" uniqueCount="6857">
   <si>
     <t>SRU_CARENCE_2020</t>
   </si>
@@ -20133,6 +20134,9 @@
     <t>Annees</t>
   </si>
   <si>
+    <t>Historique</t>
+  </si>
+  <si>
     <t>Evolution Annuelle Pop</t>
   </si>
   <si>
@@ -20617,6 +20621,9 @@
   </si>
   <si>
     <t>Surface</t>
+  </si>
+  <si>
+    <t>Projections</t>
   </si>
 </sst>
 </file>
@@ -20626,10 +20633,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20745,6 +20752,14 @@
     <font>
       <sz val="8"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -21123,7 +21138,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
@@ -21233,12 +21248,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -21333,8 +21348,8 @@
     <xf numFmtId="1" fontId="14" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="12" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="8" fillId="12" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="12" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="12" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -21414,6 +21429,9 @@
     <xf numFmtId="1" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -21428,14 +21446,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -21450,7 +21461,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21490,11 +21508,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{056FD16A-59B7-4806-B899-D827F3301C0F}" name="meta_dossier_complet" displayName="meta_dossier_complet" ref="B1:F1891" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:F1891" xr:uid="{04D0FE3E-B1D6-4BD0-BF30-25780F7E2A9A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E8732494-45D7-407C-A1C5-FBEBB7EA3116}" uniqueName="1" name="COD_VAR" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E7C424E6-1B48-4291-AD45-30260C4E79BC}" uniqueName="2" name="LIB_VAR" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ADDA7D1D-9F09-491E-84FE-7660A709BEE7}" uniqueName="3" name="LIB_VAR_LONG" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EACD6FD2-E4E2-43FB-9943-7EDA6ED25676}" uniqueName="6" name="TYPE_VAR" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6DE347E6-72DB-44FD-9AB9-921A04CB396B}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="0">
       <calculatedColumnFormula>"dossierComplet['"&amp;meta_dossier_complet[[#This Row],[COD_VAR]]&amp;"'][code_insee]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21801,8 +21819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9156-BBAC-421A-B1E9-73DF08AFB78D}">
   <dimension ref="A1:AD333"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62943,7 +62961,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="notEqual">
@@ -69601,15 +69619,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8DEB37-3DC4-45CA-AF07-C81F997E7FCC}">
-  <dimension ref="B1:XFD108"/>
+  <dimension ref="B1:XFD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
@@ -69629,287 +69647,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" customHeight="1">
-      <c r="D1" t="s">
-        <v>6796</v>
-      </c>
-      <c r="F1">
+      <c r="D1" s="120" t="s">
+        <v>6693</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="N1" s="120" t="s">
+        <v>6856</v>
+      </c>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+    </row>
+    <row r="2" spans="2:20" ht="15.75" customHeight="1">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" customHeight="1">
+      <c r="D3" t="s">
+        <v>6797</v>
+      </c>
+      <c r="F3">
         <v>1081</v>
       </c>
-      <c r="H1">
+      <c r="H3">
         <v>1087</v>
       </c>
-      <c r="N1">
+      <c r="N3">
         <v>1089</v>
       </c>
-      <c r="P1">
+      <c r="P3">
         <v>1100</v>
       </c>
-      <c r="R1">
+      <c r="R3">
         <v>1110</v>
       </c>
-      <c r="T1">
+      <c r="T3">
         <v>1118</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15.75" customHeight="1">
-      <c r="C3" t="s">
-        <v>6784</v>
-      </c>
-      <c r="D3" s="49">
+    <row r="5" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C5" t="s">
+        <v>6785</v>
+      </c>
+      <c r="D5" s="49">
         <f>Fonctions!E11/100</f>
         <v>-3.9000000000000003E-3</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E5" s="76" t="s">
         <v>747</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F5" s="49">
         <f>Fonctions!E12/100</f>
         <v>-2.5600000000000002E-3</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G5" s="76" t="s">
         <v>749</v>
       </c>
-      <c r="H3" s="50">
-        <f>F3</f>
+      <c r="H5" s="50">
+        <f>F5</f>
         <v>-2.5600000000000002E-3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
+        <v>6695</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6727</v>
+      </c>
+      <c r="N5" s="85">
+        <f>H5</f>
+        <v>-2.5600000000000002E-3</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>6718</v>
+      </c>
+      <c r="P5" s="85">
+        <f>N5</f>
+        <v>-2.5600000000000002E-3</v>
+      </c>
+      <c r="Q5" s="78" t="s">
+        <v>6720</v>
+      </c>
+      <c r="R5" s="85">
+        <f>P5</f>
+        <v>-2.5600000000000002E-3</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C6" t="s">
         <v>6694</v>
       </c>
-      <c r="K3" t="s">
-        <v>6726</v>
-      </c>
-      <c r="N3" s="85">
-        <f>H3</f>
-        <v>-2.5600000000000002E-3</v>
-      </c>
-      <c r="O3" s="78" t="s">
-        <v>6717</v>
-      </c>
-      <c r="P3" s="85">
-        <f>N3</f>
-        <v>-2.5600000000000002E-3</v>
-      </c>
-      <c r="Q3" s="78" t="s">
-        <v>6719</v>
-      </c>
-      <c r="R3" s="85">
-        <f>P3</f>
-        <v>-2.5600000000000002E-3</v>
-      </c>
-      <c r="S3" s="78" t="s">
-        <v>6718</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C4" t="s">
-        <v>6693</v>
-      </c>
-      <c r="D4" s="50">
+      <c r="D6" s="50">
         <f>Fonctions!E9/100</f>
         <v>-7.000000000000001E-4</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E6" s="76" t="s">
         <v>738</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F6" s="50">
         <f>Fonctions!E10/100</f>
         <v>1E-3</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G6" s="76" t="s">
         <v>740</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H6" s="50">
         <v>1E-3</v>
       </c>
-      <c r="J4" t="s">
-        <v>6725</v>
-      </c>
-      <c r="N4" s="86">
-        <f>H4</f>
+      <c r="J6" t="s">
+        <v>6726</v>
+      </c>
+      <c r="N6" s="86">
+        <f>H6</f>
         <v>1E-3</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O6" s="79" t="s">
         <v>496</v>
       </c>
-      <c r="P4" s="86">
+      <c r="P6" s="86">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q6" s="79" t="s">
         <v>500</v>
       </c>
-      <c r="R4" s="86">
+      <c r="R6" s="86">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S6" s="79" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C6" s="14"/>
-      <c r="D6" s="40">
+    <row r="7" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C8" s="14"/>
+      <c r="D8" s="40">
         <v>2008</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>6727</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E8" s="39" t="s">
+        <v>6728</v>
+      </c>
+      <c r="F8" s="40">
         <v>2013</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>6727</v>
-      </c>
-      <c r="H6" s="40">
+      <c r="G8" s="39" t="s">
+        <v>6728</v>
+      </c>
+      <c r="H8" s="40">
         <v>2018</v>
       </c>
-      <c r="J6" t="s">
-        <v>6694</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>6728</v>
-      </c>
-      <c r="N6" s="55">
+      <c r="J8" t="s">
+        <v>6695</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>6729</v>
+      </c>
+      <c r="N8" s="55">
         <v>2020</v>
       </c>
-      <c r="O6" s="40" t="s">
-        <v>6725</v>
-      </c>
-      <c r="P6" s="53">
+      <c r="O8" s="40" t="s">
+        <v>6726</v>
+      </c>
+      <c r="P8" s="53">
         <v>2030</v>
       </c>
-      <c r="Q6" s="40" t="s">
-        <v>6725</v>
-      </c>
-      <c r="R6" s="53">
+      <c r="Q8" s="40" t="s">
+        <v>6726</v>
+      </c>
+      <c r="R8" s="53">
         <v>2040</v>
       </c>
-      <c r="S6" s="40" t="s">
-        <v>6725</v>
-      </c>
-      <c r="T6" s="56">
+      <c r="S8" s="40" t="s">
+        <v>6726</v>
+      </c>
+      <c r="T8" s="56">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C7" s="34"/>
-      <c r="D7" s="77" t="s">
+    <row r="9" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C9" s="34"/>
+      <c r="D9" s="77" t="s">
         <v>662</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="77" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="77" t="s">
         <v>664</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="77" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="77" t="s">
         <v>666</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N9" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="82" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="82" t="s">
+      <c r="Q9" s="60"/>
+      <c r="R9" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="S7" s="60"/>
-      <c r="T7" s="83" t="s">
+      <c r="S9" s="60"/>
+      <c r="T9" s="83" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" t="s">
-        <v>6695</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>5372</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1084428</v>
-      </c>
-      <c r="E8" s="17">
-        <f>F8-D8</f>
-        <v>-3657</v>
-      </c>
-      <c r="F8" s="41">
-        <v>1080771</v>
-      </c>
-      <c r="G8" s="17">
-        <f>H8-F8</f>
-        <v>5448</v>
-      </c>
-      <c r="H8" s="41">
-        <v>1086219</v>
-      </c>
-      <c r="J8">
-        <f>H8-D8</f>
-        <v>1791</v>
-      </c>
-      <c r="L8">
-        <f>N8-H8</f>
-        <v>2174</v>
-      </c>
-      <c r="N8" s="16">
-        <f>Fonctions!E18</f>
-        <v>1088393</v>
-      </c>
-      <c r="O8" s="57">
-        <f>P8-N8</f>
-        <v>10933</v>
-      </c>
-      <c r="P8" s="18">
-        <f>Fonctions!E19</f>
-        <v>1099326</v>
-      </c>
-      <c r="Q8" s="57">
-        <f>R8-P8</f>
-        <v>9934</v>
-      </c>
-      <c r="R8" s="18">
-        <f>Fonctions!E20</f>
-        <v>1109260</v>
-      </c>
-      <c r="S8" s="57">
-        <f>T8-R8</f>
-        <v>8906</v>
-      </c>
-      <c r="T8" s="19">
-        <f>Fonctions!E21</f>
-        <v>1118166</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C9" s="15"/>
-      <c r="D9" s="77" t="s">
-        <v>674</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="77" t="s">
-        <v>676</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="77" t="s">
-        <v>678</v>
-      </c>
-      <c r="N9" s="81" t="s">
-        <v>6748</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="81" t="s">
-        <v>6749</v>
-      </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="81" t="s">
-        <v>6750</v>
-      </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="77" t="s">
-        <v>6751</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
@@ -69917,1472 +69877,1517 @@
         <v>6696</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>6697</v>
-      </c>
-      <c r="D10" s="42">
-        <v>495950</v>
-      </c>
-      <c r="E10" s="21">
+        <v>5372</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1084428</v>
+      </c>
+      <c r="E10" s="17">
         <f>F10-D10</f>
-        <v>7818</v>
-      </c>
-      <c r="F10" s="42">
-        <v>503768</v>
-      </c>
-      <c r="G10" s="21">
+        <v>-3657</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1080771</v>
+      </c>
+      <c r="G10" s="17">
         <f>H10-F10</f>
-        <v>8795</v>
-      </c>
-      <c r="H10" s="42">
-        <v>512563</v>
+        <v>5448</v>
+      </c>
+      <c r="H10" s="41">
+        <v>1086219</v>
       </c>
       <c r="J10">
         <f>H10-D10</f>
-        <v>16613</v>
-      </c>
-      <c r="K10" s="24"/>
+        <v>1791</v>
+      </c>
       <c r="L10">
         <f>N10-H10</f>
-        <v>3517</v>
-      </c>
-      <c r="N10" s="20">
-        <f>N26</f>
-        <v>516080</v>
-      </c>
-      <c r="O10" s="58">
+        <v>2174</v>
+      </c>
+      <c r="N10" s="16">
+        <f>Fonctions!E18</f>
+        <v>1088393</v>
+      </c>
+      <c r="O10" s="57">
         <f>P10-N10</f>
-        <v>18689</v>
-      </c>
-      <c r="P10" s="22">
-        <f>P26</f>
-        <v>534769</v>
-      </c>
-      <c r="Q10" s="58">
+        <v>10933</v>
+      </c>
+      <c r="P10" s="18">
+        <f>Fonctions!E19</f>
+        <v>1099326</v>
+      </c>
+      <c r="Q10" s="57">
         <f>R10-P10</f>
-        <v>18902</v>
-      </c>
-      <c r="R10" s="22">
-        <f>R26</f>
-        <v>553671</v>
-      </c>
-      <c r="S10" s="58">
+        <v>9934</v>
+      </c>
+      <c r="R10" s="18">
+        <f>Fonctions!E20</f>
+        <v>1109260</v>
+      </c>
+      <c r="S10" s="57">
         <f>T10-R10</f>
-        <v>19087</v>
-      </c>
-      <c r="T10" s="23">
-        <f>T26</f>
-        <v>572758</v>
+        <v>8906</v>
+      </c>
+      <c r="T10" s="19">
+        <f>Fonctions!E21</f>
+        <v>1118166</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="15"/>
-      <c r="D11" s="51">
-        <f>D10/D19</f>
+      <c r="D11" s="77" t="s">
+        <v>674</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="77" t="s">
+        <v>676</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="77" t="s">
+        <v>678</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>6749</v>
+      </c>
+      <c r="O11" s="58"/>
+      <c r="P11" s="81" t="s">
+        <v>6750</v>
+      </c>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="81" t="s">
+        <v>6751</v>
+      </c>
+      <c r="S11" s="58"/>
+      <c r="T11" s="77" t="s">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>6698</v>
+      </c>
+      <c r="D12" s="42">
+        <v>495950</v>
+      </c>
+      <c r="E12" s="21">
+        <f>F12-D12</f>
+        <v>7818</v>
+      </c>
+      <c r="F12" s="42">
+        <v>503768</v>
+      </c>
+      <c r="G12" s="21">
+        <f>H12-F12</f>
+        <v>8795</v>
+      </c>
+      <c r="H12" s="42">
+        <v>512563</v>
+      </c>
+      <c r="J12">
+        <f>H12-D12</f>
+        <v>16613</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12">
+        <f>N12-H12</f>
+        <v>3517</v>
+      </c>
+      <c r="N12" s="20">
+        <f>N28</f>
+        <v>516080</v>
+      </c>
+      <c r="O12" s="58">
+        <f>P12-N12</f>
+        <v>18689</v>
+      </c>
+      <c r="P12" s="22">
+        <f>P28</f>
+        <v>534769</v>
+      </c>
+      <c r="Q12" s="58">
+        <f>R12-P12</f>
+        <v>18902</v>
+      </c>
+      <c r="R12" s="22">
+        <f>R28</f>
+        <v>553671</v>
+      </c>
+      <c r="S12" s="58">
+        <f>T12-R12</f>
+        <v>19087</v>
+      </c>
+      <c r="T12" s="23">
+        <f>T28</f>
+        <v>572758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C13" s="15"/>
+      <c r="D13" s="51">
+        <f>D12/D21</f>
         <v>0.68994155772791577</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="51">
-        <f>F10/F19</f>
+      <c r="E13" s="21"/>
+      <c r="F13" s="51">
+        <f>F12/F21</f>
         <v>0.67559379723120372</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="51">
-        <f>H10/H19</f>
+      <c r="G13" s="21"/>
+      <c r="H13" s="51">
+        <f>H12/H21</f>
         <v>0.66367005215481745</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="N11" s="54">
-        <f>1-N14-N17</f>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="N13" s="54">
+        <f>1-N16-N19</f>
         <v>0.66367005215481756</v>
       </c>
-      <c r="O11" s="61">
-        <f>P11-N11</f>
+      <c r="O13" s="61">
+        <f>P13-N13</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="P11" s="54">
-        <f>1-P14-P17</f>
+      <c r="P13" s="54">
+        <f>1-P16-P19</f>
         <v>0.67867005215481746</v>
       </c>
-      <c r="Q11" s="61">
-        <f>R11-P11</f>
+      <c r="Q13" s="61">
+        <f>R13-P13</f>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="R11" s="54">
-        <f>1-R14-R17</f>
+      <c r="R13" s="54">
+        <f>1-R16-R19</f>
         <v>0.69367005215481747</v>
       </c>
-      <c r="S11" s="61">
-        <f>T11-R11</f>
+      <c r="S13" s="61">
+        <f>T13-R13</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="T11" s="62">
-        <f>1-T14-T17</f>
+      <c r="T13" s="62">
+        <f>1-T16-T19</f>
         <v>0.70867005215481738</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C12" s="15"/>
-      <c r="D12" s="77" t="s">
-        <v>680</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="77" t="s">
-        <v>682</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="77" t="s">
-        <v>684</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24" t="s">
-        <v>6787</v>
-      </c>
-      <c r="N12" s="77" t="s">
-        <v>6752</v>
-      </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="77" t="s">
-        <v>6753</v>
-      </c>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="77" t="s">
-        <v>6754</v>
-      </c>
-      <c r="S12" s="58"/>
-      <c r="T12" s="77" t="s">
-        <v>6755</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" t="s">
-        <v>6696</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="42">
-        <v>166797</v>
-      </c>
-      <c r="E13" s="21">
-        <f>F13-D13</f>
-        <v>11146</v>
-      </c>
-      <c r="F13" s="42">
-        <v>177943</v>
-      </c>
-      <c r="G13" s="21">
-        <f>H13-F13</f>
-        <v>17162</v>
-      </c>
-      <c r="H13" s="42">
-        <v>195105</v>
-      </c>
-      <c r="J13">
-        <f>H13-D13</f>
-        <v>28308</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13">
-        <f>N13-H13</f>
-        <v>1339</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6785</v>
-      </c>
-      <c r="N13" s="20">
-        <f>ROUND(N10/N11*N14,0)</f>
-        <v>196444</v>
-      </c>
-      <c r="O13" s="58">
-        <f>P13-N13</f>
-        <v>-1325</v>
-      </c>
-      <c r="P13" s="20">
-        <f>ROUND(P10/P11*P14,0)</f>
-        <v>195119</v>
-      </c>
-      <c r="Q13" s="58">
-        <f>R13-P13</f>
-        <v>-1463</v>
-      </c>
-      <c r="R13" s="20">
-        <f>ROUND(R10/R11*R14,0)</f>
-        <v>193656</v>
-      </c>
-      <c r="S13" s="58">
-        <f>T13-R13</f>
-        <v>-1605</v>
-      </c>
-      <c r="T13" s="42">
-        <f>ROUND(T10/T11*T14,0)</f>
-        <v>192051</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="C14" s="15"/>
-      <c r="D14" s="51">
-        <f>D13/D19</f>
-        <v>0.23203988709414897</v>
+      <c r="D14" s="77" t="s">
+        <v>680</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="51">
-        <f>F13/F19</f>
-        <v>0.23863601312650284</v>
+      <c r="F14" s="77" t="s">
+        <v>682</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="51">
-        <f>H13/H19</f>
-        <v>0.25262327855437411</v>
+      <c r="H14" s="77" t="s">
+        <v>684</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="52">
+      <c r="M14" s="24" t="s">
+        <v>6788</v>
+      </c>
+      <c r="N14" s="77" t="s">
+        <v>6753</v>
+      </c>
+      <c r="O14" s="58"/>
+      <c r="P14" s="77" t="s">
+        <v>6754</v>
+      </c>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="77" t="s">
+        <v>6755</v>
+      </c>
+      <c r="S14" s="58"/>
+      <c r="T14" s="77" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="42">
+        <v>166797</v>
+      </c>
+      <c r="E15" s="21">
+        <f>F15-D15</f>
+        <v>11146</v>
+      </c>
+      <c r="F15" s="42">
+        <v>177943</v>
+      </c>
+      <c r="G15" s="21">
+        <f>H15-F15</f>
+        <v>17162</v>
+      </c>
+      <c r="H15" s="42">
+        <v>195105</v>
+      </c>
+      <c r="J15">
+        <f>H15-D15</f>
+        <v>28308</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15">
+        <f>N15-H15</f>
+        <v>1339</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6786</v>
+      </c>
+      <c r="N15" s="20">
+        <f>ROUND(N12/N13*N16,0)</f>
+        <v>196444</v>
+      </c>
+      <c r="O15" s="58">
+        <f>P15-N15</f>
+        <v>-1325</v>
+      </c>
+      <c r="P15" s="20">
+        <f>ROUND(P12/P13*P16,0)</f>
+        <v>195119</v>
+      </c>
+      <c r="Q15" s="58">
+        <f>R15-P15</f>
+        <v>-1463</v>
+      </c>
+      <c r="R15" s="20">
+        <f>ROUND(R12/R13*R16,0)</f>
+        <v>193656</v>
+      </c>
+      <c r="S15" s="58">
+        <f>T15-R15</f>
+        <v>-1605</v>
+      </c>
+      <c r="T15" s="42">
+        <f>ROUND(T12/T13*T16,0)</f>
+        <v>192051</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C16" s="15"/>
+      <c r="D16" s="51">
+        <f>D15/D21</f>
+        <v>0.23203988709414897</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="51">
+        <f>F15/F21</f>
+        <v>0.23863601312650284</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="51">
+        <f>H15/H21</f>
+        <v>0.25262327855437411</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="52">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N14" s="54">
-        <f>H14</f>
+      <c r="N16" s="54">
+        <f>H16</f>
         <v>0.25262327855437411</v>
       </c>
-      <c r="O14" s="61">
-        <f>P14-N14</f>
+      <c r="O16" s="61">
+        <f>P16-N16</f>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="P14" s="54">
-        <f>N14+$M$14</f>
+      <c r="P16" s="54">
+        <f>N16+$M$16</f>
         <v>0.2476232785543741</v>
       </c>
-      <c r="Q14" s="61">
-        <f>R14-P14</f>
+      <c r="Q16" s="61">
+        <f>R16-P16</f>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="R14" s="54">
-        <f>P14+$M$14</f>
+      <c r="R16" s="54">
+        <f>P16+$M$16</f>
         <v>0.2426232785543741</v>
       </c>
-      <c r="S14" s="61">
-        <f>T14-R14</f>
+      <c r="S16" s="61">
+        <f>T16-R16</f>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="T14" s="62">
-        <f>R14+$M$14</f>
+      <c r="T16" s="62">
+        <f>R16+$M$16</f>
         <v>0.2376232785543741</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C15" s="15"/>
-      <c r="D15" s="77" t="s">
-        <v>686</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="77" t="s">
-        <v>690</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="N15" s="77" t="s">
-        <v>6756</v>
-      </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="77" t="s">
-        <v>6757</v>
-      </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="77" t="s">
-        <v>6758</v>
-      </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="77" t="s">
-        <v>6759</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" t="s">
-        <v>6696</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="42">
-        <v>56082</v>
-      </c>
-      <c r="E16" s="21">
-        <f>F16-D16</f>
-        <v>7874</v>
-      </c>
-      <c r="F16" s="42">
-        <v>63956</v>
-      </c>
-      <c r="G16" s="21">
-        <f>H16-F16</f>
-        <v>692</v>
-      </c>
-      <c r="H16" s="42">
-        <v>64648</v>
-      </c>
-      <c r="J16">
-        <f>H16-D16</f>
-        <v>8566</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16">
-        <f>N16-H16</f>
-        <v>444</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6786</v>
-      </c>
-      <c r="N16" s="20">
-        <f>ROUND(N10/N11*N17,0)</f>
-        <v>65092</v>
-      </c>
-      <c r="O16" s="58">
-        <f>P16-N16</f>
-        <v>-7014</v>
-      </c>
-      <c r="P16" s="20">
-        <f>ROUND(P10/P11*P17,0)</f>
-        <v>58078</v>
-      </c>
-      <c r="Q16" s="58">
-        <f>R16-P16</f>
-        <v>-7229</v>
-      </c>
-      <c r="R16" s="20">
-        <f>ROUND(R10/R11*R17,0)</f>
-        <v>50849</v>
-      </c>
-      <c r="S16" s="58">
-        <f>T16-R16</f>
-        <v>-7442</v>
-      </c>
-      <c r="T16" s="42">
-        <f>ROUND(T10/T11*T17,0)</f>
-        <v>43407</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="C17" s="15"/>
-      <c r="D17" s="51">
-        <f>D16/D19</f>
-        <v>7.8018555177935225E-2</v>
+      <c r="D17" s="77" t="s">
+        <v>686</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="51">
-        <f>F16/F19</f>
-        <v>8.577018964229341E-2</v>
+      <c r="F17" s="77" t="s">
+        <v>688</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="51">
-        <f>H16/H19</f>
-        <v>8.370666929080843E-2</v>
+      <c r="H17" s="77" t="s">
+        <v>690</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="52">
-        <v>-0.01</v>
-      </c>
-      <c r="N17" s="54">
-        <f>H17</f>
-        <v>8.370666929080843E-2</v>
-      </c>
-      <c r="O17" s="61">
-        <f>P17-N17</f>
-        <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="P17" s="54">
-        <f>N17+$M$17</f>
-        <v>7.3706669290808435E-2</v>
-      </c>
-      <c r="Q17" s="61">
-        <f>R17-P17</f>
-        <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="R17" s="54">
-        <f>P17+$M$17</f>
-        <v>6.370666929080844E-2</v>
-      </c>
-      <c r="S17" s="61">
-        <f>T17-R17</f>
-        <v>-1.0000000000000002E-2</v>
-      </c>
-      <c r="T17" s="62">
-        <f>R17+$M$17</f>
-        <v>5.3706669290808438E-2</v>
+      <c r="N17" s="77" t="s">
+        <v>6757</v>
+      </c>
+      <c r="O17" s="58"/>
+      <c r="P17" s="77" t="s">
+        <v>6758</v>
+      </c>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="77" t="s">
+        <v>6759</v>
+      </c>
+      <c r="S17" s="58"/>
+      <c r="T17" s="77" t="s">
+        <v>6760</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" t="s">
+        <v>6697</v>
+      </c>
       <c r="C18" s="15" t="s">
-        <v>6698</v>
-      </c>
-      <c r="D18" s="43">
-        <f>D13+D16</f>
-        <v>222879</v>
-      </c>
-      <c r="E18" s="45">
-        <f>E13+E16</f>
-        <v>19020</v>
-      </c>
-      <c r="F18" s="43">
-        <f>F13+F16</f>
-        <v>241899</v>
-      </c>
-      <c r="G18" s="45">
-        <f>G13+G16</f>
-        <v>17854</v>
-      </c>
-      <c r="H18" s="43">
-        <f>H13+H16</f>
-        <v>259753</v>
+        <v>294</v>
+      </c>
+      <c r="D18" s="42">
+        <v>56082</v>
+      </c>
+      <c r="E18" s="21">
+        <f>F18-D18</f>
+        <v>7874</v>
+      </c>
+      <c r="F18" s="42">
+        <v>63956</v>
+      </c>
+      <c r="G18" s="21">
+        <f>H18-F18</f>
+        <v>692</v>
+      </c>
+      <c r="H18" s="42">
+        <v>64648</v>
       </c>
       <c r="J18">
         <f>H18-D18</f>
-        <v>36874</v>
-      </c>
+        <v>8566</v>
+      </c>
+      <c r="K18" s="24"/>
       <c r="L18">
         <f>N18-H18</f>
+        <v>444</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6787</v>
+      </c>
+      <c r="N18" s="20">
+        <f>ROUND(N12/N13*N19,0)</f>
+        <v>65092</v>
+      </c>
+      <c r="O18" s="58">
+        <f>P18-N18</f>
+        <v>-7014</v>
+      </c>
+      <c r="P18" s="20">
+        <f>ROUND(P12/P13*P19,0)</f>
+        <v>58078</v>
+      </c>
+      <c r="Q18" s="58">
+        <f>R18-P18</f>
+        <v>-7229</v>
+      </c>
+      <c r="R18" s="20">
+        <f>ROUND(R12/R13*R19,0)</f>
+        <v>50849</v>
+      </c>
+      <c r="S18" s="58">
+        <f>T18-R18</f>
+        <v>-7442</v>
+      </c>
+      <c r="T18" s="42">
+        <f>ROUND(T12/T13*T19,0)</f>
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C19" s="15"/>
+      <c r="D19" s="51">
+        <f>D18/D21</f>
+        <v>7.8018555177935225E-2</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="51">
+        <f>F18/F21</f>
+        <v>8.577018964229341E-2</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="51">
+        <f>H18/H21</f>
+        <v>8.370666929080843E-2</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="N19" s="54">
+        <f>H19</f>
+        <v>8.370666929080843E-2</v>
+      </c>
+      <c r="O19" s="61">
+        <f>P19-N19</f>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="P19" s="54">
+        <f>N19+$M$19</f>
+        <v>7.3706669290808435E-2</v>
+      </c>
+      <c r="Q19" s="61">
+        <f>R19-P19</f>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="R19" s="54">
+        <f>P19+$M$19</f>
+        <v>6.370666929080844E-2</v>
+      </c>
+      <c r="S19" s="61">
+        <f>T19-R19</f>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="T19" s="62">
+        <f>R19+$M$19</f>
+        <v>5.3706669290808438E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C20" s="15" t="s">
+        <v>6699</v>
+      </c>
+      <c r="D20" s="43">
+        <f>D15+D18</f>
+        <v>222879</v>
+      </c>
+      <c r="E20" s="45">
+        <f>E15+E18</f>
+        <v>19020</v>
+      </c>
+      <c r="F20" s="43">
+        <f>F15+F18</f>
+        <v>241899</v>
+      </c>
+      <c r="G20" s="45">
+        <f>G15+G18</f>
+        <v>17854</v>
+      </c>
+      <c r="H20" s="43">
+        <f>H15+H18</f>
+        <v>259753</v>
+      </c>
+      <c r="J20">
+        <f>H20-D20</f>
+        <v>36874</v>
+      </c>
+      <c r="L20">
+        <f>N20-H20</f>
         <v>1783</v>
       </c>
-      <c r="N18" s="43">
-        <f>N13+N16</f>
+      <c r="N20" s="43">
+        <f t="shared" ref="N20:T20" si="0">N15+N18</f>
         <v>261536</v>
       </c>
-      <c r="O18" s="59">
-        <f>O13+O16</f>
+      <c r="O20" s="59">
+        <f t="shared" si="0"/>
         <v>-8339</v>
       </c>
-      <c r="P18" s="43">
-        <f>P13+P16</f>
+      <c r="P20" s="43">
+        <f t="shared" si="0"/>
         <v>253197</v>
       </c>
-      <c r="Q18" s="59">
-        <f>Q13+Q16</f>
+      <c r="Q20" s="59">
+        <f t="shared" si="0"/>
         <v>-8692</v>
       </c>
-      <c r="R18" s="43">
-        <f>R13+R16</f>
+      <c r="R20" s="43">
+        <f t="shared" si="0"/>
         <v>244505</v>
       </c>
-      <c r="S18" s="59">
-        <f>S13+S16</f>
+      <c r="S20" s="59">
+        <f t="shared" si="0"/>
         <v>-9047</v>
       </c>
-      <c r="T18" s="43">
-        <f>T13+T16</f>
+      <c r="T20" s="43">
+        <f t="shared" si="0"/>
         <v>235458</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="15.75" customHeight="1">
-      <c r="C19" s="25" t="s">
-        <v>6699</v>
-      </c>
-      <c r="D19" s="44">
-        <f>D18+D10</f>
+    <row r="21" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C21" s="25" t="s">
+        <v>6700</v>
+      </c>
+      <c r="D21" s="44">
+        <f>D20+D12</f>
         <v>718829</v>
       </c>
-      <c r="E19" s="46">
-        <f>E18+E10</f>
+      <c r="E21" s="46">
+        <f>E20+E12</f>
         <v>26838</v>
       </c>
-      <c r="F19" s="44">
-        <f t="shared" ref="D19:H19" si="0">F18+F10</f>
+      <c r="F21" s="44">
+        <f>F20+F12</f>
         <v>745667</v>
       </c>
-      <c r="G19" s="46">
-        <f t="shared" si="0"/>
+      <c r="G21" s="46">
+        <f>G20+G12</f>
         <v>26649</v>
       </c>
-      <c r="H19" s="44">
-        <f>H18+H10</f>
+      <c r="H21" s="44">
+        <f>H20+H12</f>
         <v>772316</v>
       </c>
-      <c r="J19">
-        <f>H19-D19</f>
+      <c r="J21">
+        <f>H21-D21</f>
         <v>53487</v>
       </c>
-      <c r="N19" s="44">
-        <f>N10+N13+N16</f>
+      <c r="N21" s="44">
+        <f>N12+N15+N18</f>
         <v>777616</v>
       </c>
-      <c r="O19" s="46">
-        <f t="shared" ref="O19:Q19" si="1">O18+O10</f>
+      <c r="O21" s="46">
+        <f>O20+O12</f>
         <v>10350</v>
       </c>
-      <c r="P19" s="44">
-        <f>P10+P13+P16</f>
+      <c r="P21" s="44">
+        <f>P12+P15+P18</f>
         <v>787966</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q21" s="46">
+        <f>Q20+Q12</f>
+        <v>10210</v>
+      </c>
+      <c r="R21" s="44">
+        <f>R12+R15+R18</f>
+        <v>798176</v>
+      </c>
+      <c r="S21" s="46">
+        <f>S20+S12</f>
+        <v>10040</v>
+      </c>
+      <c r="T21" s="44">
+        <f>T12+T15+T18</f>
+        <v>808216</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="24" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C24" s="25"/>
+      <c r="D24" s="88">
+        <f>D8</f>
+        <v>2008</v>
+      </c>
+      <c r="E24" s="88" t="str">
+        <f>E8</f>
+        <v>5 ans</v>
+      </c>
+      <c r="F24" s="88">
+        <f>F8</f>
+        <v>2013</v>
+      </c>
+      <c r="G24" s="88" t="str">
+        <f>G8</f>
+        <v>5 ans</v>
+      </c>
+      <c r="H24" s="89">
+        <f>H8</f>
+        <v>2018</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="N24" s="88">
+        <f t="shared" ref="N24:T24" si="1">N8</f>
+        <v>2020</v>
+      </c>
+      <c r="O24" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>10210</v>
-      </c>
-      <c r="R19" s="44">
-        <f>R10+R13+R16</f>
-        <v>798176</v>
-      </c>
-      <c r="S19" s="46">
-        <f t="shared" ref="Q19:S19" si="2">S18+S10</f>
-        <v>10040</v>
-      </c>
-      <c r="T19" s="44">
-        <f>T10+T13+T16</f>
-        <v>808216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="22" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C22" s="25"/>
-      <c r="D22" s="88">
-        <f>D6</f>
-        <v>2008</v>
-      </c>
-      <c r="E22" s="88" t="str">
-        <f>E6</f>
-        <v>5 ans</v>
-      </c>
-      <c r="F22" s="88">
-        <f>F6</f>
-        <v>2013</v>
-      </c>
-      <c r="G22" s="88" t="str">
-        <f>G6</f>
-        <v>5 ans</v>
-      </c>
-      <c r="H22" s="89">
-        <f>H6</f>
-        <v>2018</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="N22" s="88">
-        <f>N6</f>
-        <v>2020</v>
-      </c>
-      <c r="O22" s="88" t="str">
-        <f>O6</f>
         <v>10 ans</v>
       </c>
-      <c r="P22" s="88">
-        <f>P6</f>
+      <c r="P24" s="88">
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="Q22" s="88" t="str">
-        <f>Q6</f>
+      <c r="Q24" s="88" t="str">
+        <f t="shared" si="1"/>
         <v>10 ans</v>
       </c>
-      <c r="R22" s="88">
-        <f>R6</f>
+      <c r="R24" s="88">
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="S22" s="88" t="str">
-        <f>S6</f>
+      <c r="S24" s="88" t="str">
+        <f t="shared" si="1"/>
         <v>10 ans</v>
       </c>
-      <c r="T22" s="89">
-        <f>T6</f>
+      <c r="T24" s="89">
+        <f t="shared" si="1"/>
         <v>2050</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" customHeight="1">
-      <c r="C23" s="25"/>
-      <c r="D23" s="90" t="s">
-        <v>710</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="91" t="s">
-        <v>712</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="N23" s="90" t="s">
-        <v>6732</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="91" t="s">
-        <v>6733</v>
-      </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="91" t="s">
-        <v>6735</v>
-      </c>
-      <c r="S23" s="17"/>
-      <c r="T23" s="92" t="s">
-        <v>6734</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="15.75" customHeight="1">
-      <c r="B24" t="s">
-        <v>6700</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>6701</v>
-      </c>
-      <c r="D24" s="93">
-        <v>1060119</v>
-      </c>
-      <c r="E24" s="21">
-        <f>F24-D24</f>
-        <v>-3905</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1056214</v>
-      </c>
-      <c r="G24" s="21">
-        <f>H24-F24</f>
-        <v>4272</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1060486</v>
-      </c>
-      <c r="J24">
-        <f>H24-D24</f>
-        <v>367</v>
-      </c>
-      <c r="L24">
-        <f>N24-H24</f>
-        <v>2122</v>
-      </c>
-      <c r="N24" s="20">
-        <f>N8-N28</f>
-        <v>1062608</v>
-      </c>
-      <c r="O24" s="21">
-        <f>P24-N24</f>
-        <v>10674</v>
-      </c>
-      <c r="P24" s="22">
-        <f>P8-P28</f>
-        <v>1073282</v>
-      </c>
-      <c r="Q24" s="21">
-        <f>R24-P24</f>
-        <v>9699</v>
-      </c>
-      <c r="R24" s="22">
-        <f>R8-R28</f>
-        <v>1082981</v>
-      </c>
-      <c r="S24" s="21">
-        <f>T24-R24</f>
-        <v>8695</v>
-      </c>
-      <c r="T24" s="23">
-        <f>T8-T28</f>
-        <v>1091676</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15.75" customHeight="1">
       <c r="C25" s="25"/>
-      <c r="D25" s="81" t="s">
-        <v>704</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="94" t="s">
-        <v>706</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="95" t="s">
-        <v>708</v>
-      </c>
-      <c r="N25" s="81" t="s">
+      <c r="D25" s="90" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="91" t="s">
+        <v>712</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="N25" s="90" t="s">
+        <v>6733</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="91" t="s">
+        <v>6734</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="91" t="s">
         <v>6736</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="94" t="s">
-        <v>6737</v>
-      </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="94" t="s">
-        <v>6738</v>
-      </c>
-      <c r="S25" s="21"/>
-      <c r="T25" s="95" t="s">
-        <v>6739</v>
+      <c r="S25" s="17"/>
+      <c r="T25" s="92" t="s">
+        <v>6735</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15.75" customHeight="1">
       <c r="B26" t="s">
-        <v>6700</v>
+        <v>6701</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>6702</v>
       </c>
       <c r="D26" s="93">
-        <v>495931</v>
+        <v>1060119</v>
       </c>
       <c r="E26" s="21">
         <f>F26-D26</f>
-        <v>7921</v>
+        <v>-3905</v>
       </c>
       <c r="F26" s="22">
-        <v>503852</v>
+        <v>1056214</v>
       </c>
       <c r="G26" s="21">
         <f>H26-F26</f>
-        <v>8574</v>
+        <v>4272</v>
       </c>
       <c r="H26" s="23">
-        <v>512426</v>
-      </c>
-      <c r="J26" s="21">
+        <v>1060486</v>
+      </c>
+      <c r="J26">
         <f>H26-D26</f>
-        <v>16495</v>
-      </c>
-      <c r="K26" s="12"/>
+        <v>367</v>
+      </c>
       <c r="L26">
         <f>N26-H26</f>
-        <v>3654</v>
-      </c>
-      <c r="M26" s="12"/>
+        <v>2122</v>
+      </c>
       <c r="N26" s="20">
-        <f>ROUND(N24/N32,0)</f>
-        <v>516080</v>
+        <f>N10-N30</f>
+        <v>1062608</v>
       </c>
       <c r="O26" s="21">
         <f>P26-N26</f>
-        <v>18689</v>
+        <v>10674</v>
       </c>
       <c r="P26" s="22">
-        <f>ROUND(P24/P32,0)</f>
-        <v>534769</v>
+        <f>P10-P30</f>
+        <v>1073282</v>
       </c>
       <c r="Q26" s="21">
         <f>R26-P26</f>
-        <v>18902</v>
+        <v>9699</v>
       </c>
       <c r="R26" s="22">
-        <f>ROUND(R24/R32,0)</f>
-        <v>553671</v>
+        <f>R10-R30</f>
+        <v>1082981</v>
       </c>
       <c r="S26" s="21">
         <f>T26-R26</f>
-        <v>19087</v>
+        <v>8695</v>
       </c>
       <c r="T26" s="23">
-        <f>ROUND(T24/T32,0)</f>
-        <v>572758</v>
+        <f>T10-T30</f>
+        <v>1091676</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" customHeight="1">
       <c r="C27" s="25"/>
-      <c r="D27" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="97" t="s">
-        <v>324</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="96" t="s">
-        <v>6741</v>
+      <c r="D27" s="81" t="s">
+        <v>704</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="94" t="s">
+        <v>706</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>6737</v>
       </c>
       <c r="O27" s="21"/>
-      <c r="P27" s="78" t="s">
+      <c r="P27" s="94" t="s">
+        <v>6738</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="94" t="s">
+        <v>6739</v>
+      </c>
+      <c r="S27" s="21"/>
+      <c r="T27" s="95" t="s">
         <v>6740</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="78" t="s">
-        <v>6742</v>
-      </c>
-      <c r="S27" s="21"/>
-      <c r="T27" s="97" t="s">
-        <v>6743</v>
-      </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" customHeight="1">
+      <c r="B28" t="s">
+        <v>6701</v>
+      </c>
       <c r="C28" s="25" t="s">
         <v>6703</v>
       </c>
-      <c r="D28" s="98">
-        <f t="shared" ref="D28:H28" si="3">D8-D24</f>
-        <v>24309</v>
-      </c>
-      <c r="E28" s="46">
+      <c r="D28" s="93">
+        <v>495931</v>
+      </c>
+      <c r="E28" s="21">
         <f>F28-D28</f>
-        <v>248</v>
-      </c>
-      <c r="F28" s="44">
-        <f t="shared" si="3"/>
-        <v>24557</v>
-      </c>
-      <c r="G28" s="46">
+        <v>7921</v>
+      </c>
+      <c r="F28" s="22">
+        <v>503852</v>
+      </c>
+      <c r="G28" s="21">
         <f>H28-F28</f>
-        <v>1176</v>
-      </c>
-      <c r="H28" s="99">
-        <f t="shared" si="3"/>
-        <v>25733</v>
-      </c>
-      <c r="J28" s="27">
+        <v>8574</v>
+      </c>
+      <c r="H28" s="23">
+        <v>512426</v>
+      </c>
+      <c r="J28" s="21">
         <f>H28-D28</f>
-        <v>1424</v>
-      </c>
+        <v>16495</v>
+      </c>
+      <c r="K28" s="12"/>
       <c r="L28">
         <f>N28-H28</f>
-        <v>52</v>
+        <v>3654</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="98">
-        <f>ROUND(N8*N30,0)</f>
-        <v>25785</v>
-      </c>
-      <c r="O28" s="46">
+      <c r="N28" s="20">
+        <f>ROUND(N26/N34,0)</f>
+        <v>516080</v>
+      </c>
+      <c r="O28" s="21">
         <f>P28-N28</f>
-        <v>259</v>
-      </c>
-      <c r="P28" s="44">
-        <f>ROUND(P8*P30,0)</f>
-        <v>26044</v>
-      </c>
-      <c r="Q28" s="46">
+        <v>18689</v>
+      </c>
+      <c r="P28" s="22">
+        <f>ROUND(P26/P34,0)</f>
+        <v>534769</v>
+      </c>
+      <c r="Q28" s="21">
         <f>R28-P28</f>
-        <v>235</v>
-      </c>
-      <c r="R28" s="44">
-        <f>ROUND(R8*R30,0)</f>
-        <v>26279</v>
-      </c>
-      <c r="S28" s="46">
+        <v>18902</v>
+      </c>
+      <c r="R28" s="22">
+        <f>ROUND(R26/R34,0)</f>
+        <v>553671</v>
+      </c>
+      <c r="S28" s="21">
         <f>T28-R28</f>
-        <v>211</v>
-      </c>
-      <c r="T28" s="99">
-        <f>ROUND(T8*T30,0)</f>
-        <v>26490</v>
+        <v>19087</v>
+      </c>
+      <c r="T28" s="23">
+        <f>ROUND(T26/T34,0)</f>
+        <v>572758</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15.75" customHeight="1">
       <c r="C29" s="25"/>
       <c r="D29" s="96" t="s">
-        <v>6730</v>
-      </c>
-      <c r="E29" s="27"/>
+        <v>321</v>
+      </c>
+      <c r="E29" s="63"/>
       <c r="F29" s="78" t="s">
-        <v>6731</v>
-      </c>
-      <c r="G29" s="27"/>
+        <v>323</v>
+      </c>
+      <c r="G29" s="63"/>
       <c r="H29" s="97" t="s">
-        <v>6729</v>
+        <v>324</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="96" t="s">
-        <v>6744</v>
+        <v>6742</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="78" t="s">
-        <v>6745</v>
+        <v>6741</v>
       </c>
       <c r="Q29" s="21"/>
       <c r="R29" s="78" t="s">
-        <v>6746</v>
+        <v>6743</v>
       </c>
       <c r="S29" s="21"/>
       <c r="T29" s="97" t="s">
-        <v>6747</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="15.75" customHeight="1">
-      <c r="C30" s="25"/>
-      <c r="D30" s="100">
-        <f>D28/D8</f>
-        <v>2.2416425986787506E-2</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="101">
-        <f>F28/F8</f>
-        <v>2.2721742163696101E-2</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="102">
-        <f>H28/H8</f>
-        <v>2.3690434433571866E-2</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="C30" s="25" t="s">
+        <v>6704</v>
+      </c>
+      <c r="D30" s="98">
+        <f>D10-D26</f>
+        <v>24309</v>
+      </c>
+      <c r="E30" s="46">
+        <f>F30-D30</f>
+        <v>248</v>
+      </c>
+      <c r="F30" s="44">
+        <f>F10-F26</f>
+        <v>24557</v>
+      </c>
+      <c r="G30" s="46">
+        <f>H30-F30</f>
+        <v>1176</v>
+      </c>
+      <c r="H30" s="99">
+        <f>H10-H26</f>
+        <v>25733</v>
+      </c>
+      <c r="J30" s="27">
+        <f>H30-D30</f>
+        <v>1424</v>
+      </c>
+      <c r="L30">
+        <f>N30-H30</f>
+        <v>52</v>
+      </c>
       <c r="M30" s="12"/>
-      <c r="N30" s="100">
-        <f>H30</f>
-        <v>2.3690434433571866E-2</v>
-      </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="101">
-        <f>N30</f>
-        <v>2.3690434433571866E-2</v>
-      </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="101">
-        <f>P30</f>
-        <v>2.3690434433571866E-2</v>
-      </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="102">
-        <f>R30</f>
-        <v>2.3690434433571866E-2</v>
+      <c r="N30" s="98">
+        <f>ROUND(N10*N32,0)</f>
+        <v>25785</v>
+      </c>
+      <c r="O30" s="46">
+        <f>P30-N30</f>
+        <v>259</v>
+      </c>
+      <c r="P30" s="44">
+        <f>ROUND(P10*P32,0)</f>
+        <v>26044</v>
+      </c>
+      <c r="Q30" s="46">
+        <f>R30-P30</f>
+        <v>235</v>
+      </c>
+      <c r="R30" s="44">
+        <f>ROUND(R10*R32,0)</f>
+        <v>26279</v>
+      </c>
+      <c r="S30" s="46">
+        <f>T30-R30</f>
+        <v>211</v>
+      </c>
+      <c r="T30" s="99">
+        <f>ROUND(T10*T32,0)</f>
+        <v>26490</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" customHeight="1">
       <c r="C31" s="25"/>
       <c r="D31" s="96" t="s">
-        <v>741</v>
+        <v>6731</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="78" t="s">
-        <v>743</v>
+        <v>6732</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="97" t="s">
-        <v>745</v>
-      </c>
-      <c r="K31" s="12"/>
+        <v>6730</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="113" t="s">
+      <c r="N31" s="96" t="s">
+        <v>6745</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="78" t="s">
+        <v>6746</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="78" t="s">
+        <v>6747</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="T31" s="97" t="s">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C32" s="25"/>
+      <c r="D32" s="100">
+        <f>D30/D10</f>
+        <v>2.2416425986787506E-2</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="101">
+        <f>F30/F10</f>
+        <v>2.2721742163696101E-2</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="102">
+        <f>H30/H10</f>
+        <v>2.3690434433571866E-2</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="100">
+        <f>H32</f>
+        <v>2.3690434433571866E-2</v>
+      </c>
+      <c r="O32" s="27"/>
+      <c r="P32" s="101">
+        <f>N32</f>
+        <v>2.3690434433571866E-2</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="101">
+        <f>P32</f>
+        <v>2.3690434433571866E-2</v>
+      </c>
+      <c r="S32" s="27"/>
+      <c r="T32" s="102">
+        <f>R32</f>
+        <v>2.3690434433571866E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C33" s="25"/>
+      <c r="D33" s="96" t="s">
+        <v>741</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="78" t="s">
+        <v>743</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="97" t="s">
+        <v>745</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="113" t="s">
         <v>512</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="79" t="s">
+      <c r="O33" s="27"/>
+      <c r="P33" s="79" t="s">
         <v>515</v>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="79" t="s">
+      <c r="Q33" s="27"/>
+      <c r="R33" s="79" t="s">
         <v>517</v>
       </c>
-      <c r="S31" s="27"/>
-      <c r="T31" s="114" t="s">
+      <c r="S33" s="27"/>
+      <c r="T33" s="114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="15.75" customHeight="1">
-      <c r="B32" t="s">
-        <v>6704</v>
-      </c>
-      <c r="C32" s="25" t="s">
+    <row r="34" spans="2:20" ht="15.75" customHeight="1">
+      <c r="B34" t="s">
         <v>6705</v>
       </c>
-      <c r="D32" s="103">
-        <f>D24/D26</f>
+      <c r="C34" s="25" t="s">
+        <v>6706</v>
+      </c>
+      <c r="D34" s="103">
+        <f>D26/D28</f>
         <v>2.1376340660293467</v>
       </c>
-      <c r="E32" s="29">
-        <f>F32-D32</f>
+      <c r="E34" s="29">
+        <f>F34-D34</f>
         <v>-4.1355793838306454E-2</v>
       </c>
-      <c r="F32" s="28">
-        <f>F24/F26</f>
+      <c r="F34" s="28">
+        <f>F26/F28</f>
         <v>2.0962782721910402</v>
       </c>
-      <c r="G32" s="29">
-        <f>H32-F32</f>
+      <c r="G34" s="29">
+        <f>H34-F34</f>
         <v>-2.6738475225234648E-2</v>
       </c>
-      <c r="H32" s="104">
-        <f>H24/H26</f>
+      <c r="H34" s="104">
+        <f>H26/H28</f>
         <v>2.0695397969658056</v>
       </c>
-      <c r="J32" s="37">
-        <f>H32-D32</f>
+      <c r="J34" s="37">
+        <f>H34-D34</f>
         <v>-6.8094269063541102E-2</v>
       </c>
-      <c r="N32" s="103">
+      <c r="N34" s="103">
         <f>Fonctions!E22</f>
         <v>2.0590000000000002</v>
       </c>
-      <c r="O32" s="29">
-        <f>P32-N32</f>
+      <c r="O34" s="29">
+        <f>P34-N34</f>
         <v>-5.2000000000000046E-2</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P34" s="28">
         <f>Fonctions!E23</f>
         <v>2.0070000000000001</v>
       </c>
-      <c r="Q32" s="29">
-        <f>R32-P32</f>
+      <c r="Q34" s="29">
+        <f>R34-P34</f>
         <v>-5.1000000000000156E-2</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R34" s="28">
         <f>Fonctions!E24</f>
         <v>1.956</v>
       </c>
-      <c r="S32" s="29">
-        <f>T32-R32</f>
+      <c r="S34" s="29">
+        <f>T34-R34</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="T32" s="104">
+      <c r="T34" s="104">
         <f>Fonctions!E25</f>
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C33" s="25"/>
-      <c r="D33" s="105" t="s">
-        <v>6803</v>
-      </c>
-      <c r="E33" s="84" t="s">
+    <row r="35" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C35" s="25"/>
+      <c r="D35" s="105" t="s">
+        <v>6804</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>6811</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>6805</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>6812</v>
+      </c>
+      <c r="H35" s="106" t="s">
+        <v>6806</v>
+      </c>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="105" t="s">
+        <v>6807</v>
+      </c>
+      <c r="O35" s="84" t="s">
+        <v>6813</v>
+      </c>
+      <c r="P35" s="84" t="s">
         <v>6810</v>
       </c>
-      <c r="F33" s="84" t="s">
-        <v>6804</v>
-      </c>
-      <c r="G33" s="84" t="s">
-        <v>6811</v>
-      </c>
-      <c r="H33" s="106" t="s">
-        <v>6805</v>
-      </c>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="105" t="s">
-        <v>6806</v>
-      </c>
-      <c r="O33" s="84" t="s">
-        <v>6812</v>
-      </c>
-      <c r="P33" s="84" t="s">
+      <c r="Q35" s="84" t="s">
+        <v>6814</v>
+      </c>
+      <c r="R35" s="84" t="s">
         <v>6809</v>
       </c>
-      <c r="Q33" s="84" t="s">
-        <v>6813</v>
-      </c>
-      <c r="R33" s="84" t="s">
+      <c r="S35" s="84" t="s">
+        <v>6815</v>
+      </c>
+      <c r="T35" s="106" t="s">
         <v>6808</v>
       </c>
-      <c r="S33" s="84" t="s">
-        <v>6814</v>
-      </c>
-      <c r="T33" s="106" t="s">
-        <v>6807</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C34" s="25" t="s">
-        <v>6783</v>
-      </c>
-      <c r="D34" s="98">
-        <f>D26</f>
+    </row>
+    <row r="36" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C36" s="25" t="s">
+        <v>6784</v>
+      </c>
+      <c r="D36" s="98">
+        <f>D28</f>
         <v>495931</v>
       </c>
-      <c r="E34" s="107">
-        <f>F34-D34</f>
+      <c r="E36" s="107">
+        <f>F36-D36</f>
         <v>7921</v>
       </c>
-      <c r="F34" s="44">
-        <f>F26</f>
+      <c r="F36" s="44">
+        <f>F28</f>
         <v>503852</v>
       </c>
-      <c r="G34" s="107">
-        <f>H34-F34</f>
+      <c r="G36" s="107">
+        <f>H36-F36</f>
         <v>8574</v>
       </c>
-      <c r="H34" s="99">
-        <f>H26</f>
+      <c r="H36" s="99">
+        <f>H28</f>
         <v>512426</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31">
-        <f>N34-H34</f>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31">
+        <f>N36-H36</f>
         <v>3654</v>
       </c>
-      <c r="L34">
-        <f>N34-H34</f>
+      <c r="L36">
+        <f>N36-H36</f>
         <v>3654</v>
       </c>
-      <c r="N34" s="98">
-        <f>N26</f>
+      <c r="N36" s="98">
+        <f>N28</f>
         <v>516080</v>
       </c>
-      <c r="O34" s="107">
-        <f>P34-N34</f>
+      <c r="O36" s="107">
+        <f>P36-N36</f>
         <v>18689</v>
       </c>
-      <c r="P34" s="44">
-        <f>P26</f>
+      <c r="P36" s="44">
+        <f>P28</f>
         <v>534769</v>
       </c>
-      <c r="Q34" s="107">
-        <f>R34-P34</f>
+      <c r="Q36" s="107">
+        <f>R36-P36</f>
         <v>18902</v>
       </c>
-      <c r="R34" s="44">
-        <f>R26</f>
+      <c r="R36" s="44">
+        <f>R28</f>
         <v>553671</v>
       </c>
-      <c r="S34" s="107">
-        <f>T34-R34</f>
+      <c r="S36" s="107">
+        <f>T36-R36</f>
         <v>19087</v>
       </c>
-      <c r="T34" s="99">
-        <f>T26</f>
+      <c r="T36" s="99">
+        <f>T28</f>
         <v>572758</v>
       </c>
     </row>
-    <row r="35" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C35" s="25" t="s">
-        <v>6724</v>
-      </c>
-      <c r="D35" s="108"/>
-      <c r="E35" s="107">
-        <f>E34/5</f>
+    <row r="37" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C37" s="25" t="s">
+        <v>6725</v>
+      </c>
+      <c r="D37" s="108"/>
+      <c r="E37" s="107">
+        <f>E36/5</f>
         <v>1584.2</v>
       </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107">
-        <f>G34/5</f>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107">
+        <f>G36/5</f>
         <v>1714.8</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="107">
-        <f>O34/10</f>
-        <v>1868.9</v>
-      </c>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107">
-        <f>Q34/10</f>
-        <v>1890.2</v>
-      </c>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107">
-        <f>S34/10</f>
-        <v>1908.7</v>
-      </c>
-      <c r="T35" s="109"/>
-    </row>
-    <row r="36" spans="3:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C36" s="25" t="s">
-        <v>6760</v>
-      </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111">
-        <f>E28/5</f>
-        <v>49.6</v>
-      </c>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111">
-        <f>G28/5</f>
-        <v>235.2</v>
-      </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="111">
-        <f>O28/10</f>
-        <v>25.9</v>
-      </c>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="111">
-        <f>Q28/10</f>
-        <v>23.5</v>
-      </c>
-      <c r="R36" s="117"/>
-      <c r="S36" s="111">
-        <f>S28/10</f>
-        <v>21.1</v>
-      </c>
-      <c r="T36" s="112"/>
-    </row>
-    <row r="37" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="H37" s="109"/>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C38" s="25"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="107">
+        <f>O36/10</f>
+        <v>1868.9</v>
+      </c>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107">
+        <f>Q36/10</f>
+        <v>1890.2</v>
+      </c>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107">
+        <f>S36/10</f>
+        <v>1908.7</v>
+      </c>
+      <c r="T37" s="109"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C38" s="25" t="s">
+        <v>6761</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111">
+        <f>E30/5</f>
+        <v>49.6</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111">
+        <f>G30/5</f>
+        <v>235.2</v>
+      </c>
+      <c r="H38" s="112"/>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
-      <c r="N38" t="s">
-        <v>6799</v>
-      </c>
-      <c r="O38">
+      <c r="N38" s="116"/>
+      <c r="O38" s="111">
+        <f>O30/10</f>
+        <v>25.9</v>
+      </c>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="111">
+        <f>Q30/10</f>
+        <v>23.5</v>
+      </c>
+      <c r="R38" s="117"/>
+      <c r="S38" s="111">
+        <f>S30/10</f>
+        <v>21.1</v>
+      </c>
+      <c r="T38" s="112"/>
+    </row>
+    <row r="39" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C40" s="25"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="N40" t="s">
+        <v>6800</v>
+      </c>
+      <c r="O40">
         <v>70</v>
       </c>
-      <c r="Q38">
-        <f>O38</f>
+      <c r="Q40">
+        <f>O40</f>
         <v>70</v>
       </c>
-      <c r="S38">
-        <f>Q38</f>
+      <c r="S40">
+        <f>Q40</f>
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C39" s="25"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="N39" t="s">
-        <v>6721</v>
-      </c>
-      <c r="O39">
-        <f>ROUND(O34/O38,1)</f>
-        <v>267</v>
-      </c>
-      <c r="Q39">
-        <f>ROUND(Q34/Q38,1)</f>
-        <v>270</v>
-      </c>
-      <c r="S39">
-        <f>ROUND(S34/S38,1)</f>
-        <v>272.7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C40" t="s">
-        <v>6706</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>6789</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>6791</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>6791</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>6792</v>
-      </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="3:20" ht="15.75" customHeight="1">
+    <row r="41" spans="2:20" ht="15.75" customHeight="1">
       <c r="C41" s="25"/>
-      <c r="D41" s="72" t="s">
-        <v>830</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>832</v>
-      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="72" t="s">
-        <v>6794</v>
-      </c>
+      <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="31"/>
-      <c r="M41" t="s">
-        <v>6720</v>
-      </c>
       <c r="N41" t="s">
-        <v>6797</v>
-      </c>
-      <c r="O41" t="s">
-        <v>6801</v>
-      </c>
-      <c r="P41">
-        <v>66716</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C42" s="25" t="s">
-        <v>6788</v>
-      </c>
-      <c r="D42" s="30">
-        <v>29947</v>
-      </c>
-      <c r="F42" s="30">
-        <v>33671</v>
-      </c>
-      <c r="G42" s="30">
-        <f>F42</f>
-        <v>33671</v>
-      </c>
-      <c r="H42" s="30">
-        <f>D42+G42</f>
-        <v>63618</v>
+        <v>6722</v>
+      </c>
+      <c r="O41">
+        <f>ROUND(O36/O40,1)</f>
+        <v>267</v>
+      </c>
+      <c r="Q41">
+        <f>ROUND(Q36/Q40,1)</f>
+        <v>270</v>
+      </c>
+      <c r="S41">
+        <f>ROUND(S36/S40,1)</f>
+        <v>272.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="15.75" customHeight="1">
+      <c r="C42" t="s">
+        <v>6707</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>6790</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>6792</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>6792</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>6793</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="31"/>
-      <c r="N42" t="s">
-        <v>6800</v>
-      </c>
-      <c r="O42" s="36">
-        <v>1</v>
-      </c>
-      <c r="P42" s="33">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="2:20" ht="15.75" customHeight="1">
       <c r="C43" s="25"/>
-      <c r="D43" s="118" t="s">
-        <v>836</v>
-      </c>
-      <c r="F43" s="118" t="s">
-        <v>838</v>
+      <c r="D43" s="72" t="s">
+        <v>830</v>
+      </c>
+      <c r="F43" s="72" t="s">
+        <v>832</v>
       </c>
       <c r="G43" s="30"/>
-      <c r="H43" s="118" t="s">
-        <v>6793</v>
+      <c r="H43" s="72" t="s">
+        <v>6795</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="31"/>
+      <c r="M43" t="s">
+        <v>6721</v>
+      </c>
       <c r="N43" t="s">
-        <v>6851</v>
-      </c>
-      <c r="O43" s="33">
-        <v>35</v>
+        <v>6798</v>
+      </c>
+      <c r="O43" t="s">
+        <v>6802</v>
       </c>
       <c r="P43">
-        <f>ROUND((P41-P42)/O43*100,0)</f>
-        <v>147760</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" ht="15.75" customHeight="1">
+        <v>66716</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="15.75" customHeight="1">
       <c r="C44" s="25" t="s">
-        <v>835</v>
+        <v>6789</v>
       </c>
       <c r="D44" s="30">
-        <v>22565</v>
+        <v>29947</v>
       </c>
       <c r="F44" s="30">
-        <v>17809</v>
+        <v>33671</v>
       </c>
       <c r="G44" s="30">
-        <f>G42*G46</f>
-        <v>25371.025979229973</v>
+        <f>F44</f>
+        <v>33671</v>
       </c>
       <c r="H44" s="30">
         <f>D44+G44</f>
-        <v>47936.025979229977</v>
+        <v>63618</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="31"/>
-      <c r="M44" t="s">
-        <v>6722</v>
-      </c>
-      <c r="P44">
-        <f>P41+P43-P42</f>
-        <v>199476</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" ht="15.75" customHeight="1">
+      <c r="N44" t="s">
+        <v>6801</v>
+      </c>
+      <c r="O44" s="36">
+        <v>1</v>
+      </c>
+      <c r="P44" s="33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="15.75" customHeight="1">
       <c r="C45" s="25"/>
       <c r="D45" s="118" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F45" s="118" t="s">
-        <v>844</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="G45" s="30"/>
       <c r="H45" s="118" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="31"/>
       <c r="N45" t="s">
-        <v>6799</v>
+        <v>6852</v>
+      </c>
+      <c r="O45" s="33">
+        <v>35</v>
       </c>
       <c r="P45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" ht="15.75" customHeight="1">
+        <f>ROUND((P43-P44)/O45*100,0)</f>
+        <v>147760</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="15.75" customHeight="1">
       <c r="C46" s="25" t="s">
-        <v>6790</v>
-      </c>
-      <c r="D46" s="71">
-        <f>D44/D42</f>
-        <v>0.75349784619494442</v>
-      </c>
-      <c r="F46" s="71">
-        <f>F44/F42</f>
-        <v>0.52891212022214962</v>
-      </c>
-      <c r="G46" s="71">
-        <f>D46</f>
-        <v>0.75349784619494442</v>
-      </c>
-      <c r="H46" s="71">
-        <f>H44/H42</f>
-        <v>0.75349784619494442</v>
+        <v>835</v>
+      </c>
+      <c r="D46" s="30">
+        <v>22565</v>
+      </c>
+      <c r="F46" s="30">
+        <v>17809</v>
+      </c>
+      <c r="G46" s="30">
+        <f>G44*G48</f>
+        <v>25371.025979229973</v>
+      </c>
+      <c r="H46" s="30">
+        <f>D46+G46</f>
+        <v>47936.025979229977</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="31"/>
-      <c r="N46" t="s">
-        <v>6721</v>
+      <c r="M46" t="s">
+        <v>6723</v>
       </c>
       <c r="P46">
-        <f>ROUND(P44/P45,1)</f>
-        <v>2849.7</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20" ht="15.75" customHeight="1">
+        <f>P43+P45-P44</f>
+        <v>199476</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15.75" customHeight="1">
       <c r="C47" s="25"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="D47" s="118" t="s">
+        <v>842</v>
+      </c>
+      <c r="F47" s="118" t="s">
+        <v>844</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>6796</v>
+      </c>
       <c r="I47" s="30"/>
       <c r="J47" s="31"/>
-      <c r="M47" t="s">
-        <v>6798</v>
-      </c>
-      <c r="O47" s="24">
-        <f>P47/P8</f>
-        <v>0.36417586775897232</v>
+      <c r="N47" t="s">
+        <v>6800</v>
       </c>
       <c r="P47">
-        <f>ROUND(P44*P32,0)</f>
-        <v>400348</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15.75" customHeight="1">
       <c r="C48" s="25" t="s">
-        <v>6707</v>
-      </c>
-      <c r="D48" s="73">
-        <f>ROUND(D44/(2016-2013+1),0)</f>
-        <v>5641</v>
-      </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73">
-        <f>ROUND(F44/(2021-2017+1),0)</f>
-        <v>3562</v>
-      </c>
-      <c r="G48" s="73">
-        <f>ROUND(G44/(2021-2017+1),0)</f>
-        <v>5074</v>
-      </c>
-      <c r="H48" s="73">
-        <f>ROUND(H44/(2021-2013+1),0)</f>
-        <v>5326</v>
+        <v>6791</v>
+      </c>
+      <c r="D48" s="71">
+        <f>D46/D44</f>
+        <v>0.75349784619494442</v>
+      </c>
+      <c r="F48" s="71">
+        <f>F46/F44</f>
+        <v>0.52891212022214962</v>
+      </c>
+      <c r="G48" s="71">
+        <f>D48</f>
+        <v>0.75349784619494442</v>
+      </c>
+      <c r="H48" s="71">
+        <f>H46/H44</f>
+        <v>0.75349784619494442</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="31"/>
+      <c r="N48" t="s">
+        <v>6722</v>
+      </c>
+      <c r="P48">
+        <f>ROUND(P46/P47,1)</f>
+        <v>2849.7</v>
+      </c>
     </row>
     <row r="49" spans="3:16 16384:16384" ht="15.75" customHeight="1">
       <c r="C49" s="25"/>
@@ -71391,716 +71396,765 @@
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="31"/>
       <c r="M49" t="s">
-        <v>6802</v>
+        <v>6799</v>
+      </c>
+      <c r="O49" s="24">
+        <f>P49/P10</f>
+        <v>0.36417586775897232</v>
       </c>
       <c r="P49">
-        <f>P34+P44</f>
+        <f>ROUND(P46*P34,0)</f>
+        <v>400348</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C50" s="25" t="s">
+        <v>6708</v>
+      </c>
+      <c r="D50" s="73">
+        <f>ROUND(D46/(2016-2013+1),0)</f>
+        <v>5641</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73">
+        <f>ROUND(F46/(2021-2017+1),0)</f>
+        <v>3562</v>
+      </c>
+      <c r="G50" s="73">
+        <f>ROUND(G46/(2021-2017+1),0)</f>
+        <v>5074</v>
+      </c>
+      <c r="H50" s="73">
+        <f>ROUND(H46/(2021-2013+1),0)</f>
+        <v>5326</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C51" s="25"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="M51" t="s">
+        <v>6803</v>
+      </c>
+      <c r="P51">
+        <f>P36+P46</f>
         <v>734245</v>
       </c>
-      <c r="XFD49" s="30"/>
-    </row>
-    <row r="50" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="D50" s="48" t="s">
-        <v>6846</v>
-      </c>
-      <c r="F50" s="48" t="s">
+      <c r="XFD51" s="30"/>
+    </row>
+    <row r="52" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="D52" s="48" t="s">
         <v>6847</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="F52" s="48" t="s">
         <v>6848</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="31" t="str">
-        <f>H40</f>
+      <c r="H52" s="48" t="s">
+        <v>6849</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="31" t="str">
+        <f>H42</f>
         <v>2013-2021</v>
       </c>
-      <c r="K50" s="48" t="s">
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="C51" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="D51" s="25">
-        <f>G73</f>
-        <v>11190</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25">
-        <f>G78</f>
-        <v>26286</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25">
-        <f>D51+F51</f>
-        <v>37476</v>
-      </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="31">
-        <f>H44</f>
-        <v>47936.025979229977</v>
-      </c>
-      <c r="K51" s="31">
-        <f>H42+D51</f>
-        <v>74808</v>
-      </c>
-      <c r="L51" s="25"/>
-      <c r="M51" t="s">
-        <v>6723</v>
-      </c>
-      <c r="P51" s="38">
-        <f>P49-P34</f>
-        <v>199476</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="C52" s="25" t="s">
-        <v>6845</v>
-      </c>
-      <c r="D52" s="73">
-        <f>E34</f>
-        <v>7921</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="73">
-        <f>G34</f>
-        <v>8574</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="73">
-        <f>D52+F52</f>
-        <v>16495</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="31">
-        <f>G34+L34</f>
-        <v>12228</v>
-      </c>
-      <c r="K52" s="31">
-        <f>E34+G34+J34</f>
-        <v>20149</v>
-      </c>
-      <c r="L52" s="25"/>
+      <c r="K52" s="48" t="s">
+        <v>6851</v>
+      </c>
     </row>
     <row r="53" spans="3:16 16384:16384" ht="15.75" customHeight="1">
       <c r="C53" s="25" t="s">
-        <v>6849</v>
-      </c>
-      <c r="D53" s="73">
-        <f>D51-D52</f>
+        <v>835</v>
+      </c>
+      <c r="D53" s="25">
+        <f>G75</f>
+        <v>11190</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25">
+        <f>G80</f>
+        <v>26286</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25">
+        <f>D53+F53</f>
+        <v>37476</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="31">
+        <f>H46</f>
+        <v>47936.025979229977</v>
+      </c>
+      <c r="K53" s="31">
+        <f>H44+D53</f>
+        <v>74808</v>
+      </c>
+      <c r="L53" s="25"/>
+      <c r="M53" t="s">
+        <v>6724</v>
+      </c>
+      <c r="P53" s="38">
+        <f>P51-P36</f>
+        <v>199476</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C54" s="25" t="s">
+        <v>6846</v>
+      </c>
+      <c r="D54" s="73">
+        <f>E36</f>
+        <v>7921</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="73">
+        <f>G36</f>
+        <v>8574</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="73">
+        <f>D54+F54</f>
+        <v>16495</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="31">
+        <f>G36+L36</f>
+        <v>12228</v>
+      </c>
+      <c r="K54" s="31">
+        <f>E36+G36+J36</f>
+        <v>20149</v>
+      </c>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C55" s="25" t="s">
+        <v>6850</v>
+      </c>
+      <c r="D55" s="73">
+        <f>D53-D54</f>
         <v>3269</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="73">
-        <f>F51-F52</f>
+      <c r="E55" s="25"/>
+      <c r="F55" s="73">
+        <f>F53-F54</f>
         <v>17712</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="73">
-        <f>H51-H52</f>
+      <c r="G55" s="25"/>
+      <c r="H55" s="73">
+        <f>H53-H54</f>
         <v>20981</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="119">
-        <f>J51-J52</f>
+      <c r="I55" s="25"/>
+      <c r="J55" s="119">
+        <f>J53-J54</f>
         <v>35708.025979229977</v>
       </c>
-      <c r="K53" s="119">
-        <f>K51-K52</f>
+      <c r="K55" s="119">
+        <f>K53-K54</f>
         <v>54659</v>
       </c>
-      <c r="L53" s="25"/>
-    </row>
-    <row r="54" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" t="s">
-        <v>6852</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25">
-        <f>G18+L18</f>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" t="s">
+        <v>6853</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25">
+        <f>G20+L20</f>
         <v>19637</v>
       </c>
-      <c r="K54" s="25">
-        <f>E18+G18+L18</f>
+      <c r="K56" s="25">
+        <f>E20+G20+L20</f>
         <v>38657</v>
       </c>
-      <c r="L54" s="25"/>
-    </row>
-    <row r="55" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25" t="s">
-        <v>6853</v>
-      </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="73">
-        <f>J53-J54</f>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>6854</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="73">
+        <f>J55-J56</f>
         <v>16071.025979229977</v>
       </c>
-      <c r="K55" s="73">
-        <f>K53-K54</f>
+      <c r="K57" s="73">
+        <f>K55-K56</f>
         <v>16002</v>
       </c>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="56" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" spans="3:16 16384:16384" ht="15.75" customHeight="1">
-      <c r="C58" s="87" t="s">
-        <v>6773</v>
-      </c>
       <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C59" t="s">
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="60" spans="3:16 16384:16384" ht="15.75" customHeight="1">
+      <c r="C60" s="87" t="s">
+        <v>6774</v>
+      </c>
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C61" t="s">
         <v>6692</v>
       </c>
-      <c r="D59" t="s">
-        <v>6761</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>6854</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C60" s="65">
+      <c r="D61" t="s">
+        <v>6762</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C62" s="65">
         <v>1995</v>
       </c>
-      <c r="D60" s="66" t="s">
-        <v>6815</v>
-      </c>
-      <c r="E60" s="66" t="s">
+      <c r="D62" s="66" t="s">
         <v>6816</v>
       </c>
-    </row>
-    <row r="61" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C61" s="67">
-        <v>1996</v>
-      </c>
-      <c r="D61" s="64" t="s">
+      <c r="E62" s="66" t="s">
         <v>6817</v>
-      </c>
-      <c r="E61" s="64" t="s">
-        <v>6818</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C62" s="67">
-        <v>1997</v>
-      </c>
-      <c r="D62" s="64" t="s">
-        <v>6819</v>
-      </c>
-      <c r="E62" s="64" t="s">
-        <v>6820</v>
       </c>
     </row>
     <row r="63" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
       <c r="C63" s="67">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>6821</v>
+        <v>6818</v>
       </c>
       <c r="E63" s="64" t="s">
-        <v>6822</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="64" spans="3:16 16384:16384" ht="15.75" customHeight="1" thickBot="1">
       <c r="C64" s="67">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>6823</v>
+        <v>6820</v>
       </c>
       <c r="E64" s="64" t="s">
-        <v>6824</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C65" s="67">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>6825</v>
+        <v>6822</v>
       </c>
       <c r="E65" s="64" t="s">
-        <v>6826</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C66" s="67">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>6827</v>
+        <v>6824</v>
       </c>
       <c r="E66" s="64" t="s">
-        <v>6828</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C67" s="67">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D67" s="64" t="s">
-        <v>6829</v>
+        <v>6826</v>
       </c>
       <c r="E67" s="64" t="s">
-        <v>6830</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C68" s="67">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>6831</v>
+        <v>6828</v>
       </c>
       <c r="E68" s="64" t="s">
-        <v>6832</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="69" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C69" s="67">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D69" s="64" t="s">
-        <v>6833</v>
+        <v>6830</v>
       </c>
       <c r="E69" s="64" t="s">
-        <v>6834</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="70" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C70" s="67">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>6835</v>
+        <v>6832</v>
       </c>
       <c r="E70" s="64" t="s">
-        <v>6836</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C71" s="67">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>6837</v>
+        <v>6834</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>6838</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="72" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C72" s="67">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D72" s="64" t="s">
-        <v>6839</v>
+        <v>6836</v>
       </c>
       <c r="E72" s="64" t="s">
-        <v>6840</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="73" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C73" s="67">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>6841</v>
+        <v>6838</v>
       </c>
       <c r="E73" s="64" t="s">
-        <v>6842</v>
-      </c>
-      <c r="G73">
-        <f>SUM(D73:D77)</f>
-        <v>11190</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="74" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C74" s="67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>6843</v>
+        <v>6840</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>6844</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="75" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C75" s="67">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>6762</v>
+        <v>6842</v>
       </c>
       <c r="E75" s="64" t="s">
-        <v>6763</v>
+        <v>6843</v>
+      </c>
+      <c r="G75">
+        <f>SUM(D75:D79)</f>
+        <v>11190</v>
       </c>
     </row>
     <row r="76" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C76" s="67">
-        <v>2011</v>
-      </c>
-      <c r="D76" s="64">
-        <v>6606</v>
+        <v>2009</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>6844</v>
       </c>
       <c r="E76" s="64" t="s">
-        <v>6764</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="77" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C77" s="67">
-        <v>2012</v>
-      </c>
-      <c r="D77" s="64">
-        <v>4584</v>
+        <v>2010</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>6763</v>
       </c>
       <c r="E77" s="64" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="78" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C78" s="67">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D78" s="64">
-        <v>3769</v>
+        <v>6606</v>
       </c>
       <c r="E78" s="64" t="s">
-        <v>6766</v>
-      </c>
-      <c r="G78">
-        <f>SUM(D78:D82)</f>
-        <v>26286</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="79" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C79" s="67">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D79" s="64">
-        <v>5109</v>
+        <v>4584</v>
       </c>
       <c r="E79" s="64" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="80" spans="3:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="C80" s="67">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D80" s="64">
-        <v>4885</v>
+        <v>3769</v>
       </c>
       <c r="E80" s="64" t="s">
-        <v>6768</v>
+        <v>6767</v>
+      </c>
+      <c r="G80">
+        <f>SUM(D80:D84)</f>
+        <v>26286</v>
       </c>
     </row>
     <row r="81" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="C81" s="67">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D81" s="64">
-        <v>5376</v>
+        <v>5109</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="82" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="C82" s="67">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D82" s="64">
-        <v>7147</v>
+        <v>4885</v>
       </c>
       <c r="E82" s="64" t="s">
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C83" s="67">
+        <v>2016</v>
+      </c>
+      <c r="D83" s="64">
+        <v>5376</v>
+      </c>
+      <c r="E83" s="64" t="s">
         <v>6770</v>
-      </c>
-      <c r="F82" s="68" t="s">
-        <v>6774</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C83" s="67">
-        <v>2018</v>
-      </c>
-      <c r="D83" s="64">
-        <v>7737</v>
-      </c>
-      <c r="E83" s="64" t="s">
-        <v>6771</v>
-      </c>
-      <c r="F83" s="70" t="s">
-        <v>6779</v>
-      </c>
-      <c r="G83" s="66">
-        <v>8136</v>
-      </c>
-      <c r="H83" s="66" t="s">
-        <v>6775</v>
-      </c>
-      <c r="J83" s="24">
-        <f>D83/G83</f>
-        <v>0.95095870206489674</v>
       </c>
     </row>
     <row r="84" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="C84" s="67">
+        <v>2017</v>
+      </c>
+      <c r="D84" s="64">
+        <v>7147</v>
+      </c>
+      <c r="E84" s="64" t="s">
+        <v>6771</v>
+      </c>
+      <c r="F84" s="68" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C85" s="67">
+        <v>2018</v>
+      </c>
+      <c r="D85" s="64">
+        <v>7737</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>6772</v>
+      </c>
+      <c r="F85" s="70" t="s">
+        <v>6780</v>
+      </c>
+      <c r="G85" s="66">
+        <v>8136</v>
+      </c>
+      <c r="H85" s="66" t="s">
+        <v>6776</v>
+      </c>
+      <c r="J85" s="24">
+        <f>D85/G85</f>
+        <v>0.95095870206489674</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C86" s="67">
         <v>2019</v>
       </c>
-      <c r="D84" s="64">
+      <c r="D86" s="64">
         <v>5252</v>
       </c>
-      <c r="E84" s="64" t="s">
-        <v>6772</v>
-      </c>
-      <c r="F84" s="69" t="s">
-        <v>6780</v>
-      </c>
-      <c r="G84" s="64">
+      <c r="E86" s="64" t="s">
+        <v>6773</v>
+      </c>
+      <c r="F86" s="69" t="s">
+        <v>6781</v>
+      </c>
+      <c r="G86" s="64">
         <v>5829</v>
       </c>
-      <c r="H84" s="64" t="s">
-        <v>6776</v>
-      </c>
-      <c r="J84" s="24">
-        <f>D84/G84</f>
+      <c r="H86" s="64" t="s">
+        <v>6777</v>
+      </c>
+      <c r="J86" s="24">
+        <f>D86/G86</f>
         <v>0.90101218047692566</v>
       </c>
     </row>
-    <row r="85" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F85" s="69" t="s">
-        <v>6781</v>
-      </c>
-      <c r="G85" s="64">
+    <row r="87" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F87" s="69" t="s">
+        <v>6782</v>
+      </c>
+      <c r="G87" s="64">
         <v>5944</v>
       </c>
-      <c r="H85" s="64" t="s">
-        <v>6777</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F86" s="69" t="s">
-        <v>6782</v>
-      </c>
-      <c r="G86" s="64">
+      <c r="H87" s="64" t="s">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F88" s="69" t="s">
+        <v>6783</v>
+      </c>
+      <c r="G88" s="64">
         <v>2352</v>
       </c>
-      <c r="H86" s="64" t="s">
-        <v>6778</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="93" spans="3:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="D93" s="65">
+      <c r="H88" s="64" t="s">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="95" spans="3:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="D95" s="65">
         <v>1995</v>
       </c>
-      <c r="E93" s="66" t="s">
-        <v>6815</v>
-      </c>
-      <c r="F93" s="66" t="s">
+      <c r="E95" s="66" t="s">
         <v>6816</v>
       </c>
-    </row>
-    <row r="94" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D94" s="67">
-        <v>1996</v>
-      </c>
-      <c r="E94" s="64" t="s">
+      <c r="F95" s="66" t="s">
         <v>6817</v>
-      </c>
-      <c r="F94" s="64" t="s">
-        <v>6818</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D95" s="67">
-        <v>1997</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>6819</v>
-      </c>
-      <c r="F95" s="64" t="s">
-        <v>6820</v>
       </c>
     </row>
     <row r="96" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="D96" s="67">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E96" s="64" t="s">
-        <v>6821</v>
+        <v>6818</v>
       </c>
       <c r="F96" s="64" t="s">
-        <v>6822</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D97" s="67">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E97" s="64" t="s">
-        <v>6823</v>
+        <v>6820</v>
       </c>
       <c r="F97" s="64" t="s">
-        <v>6824</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="98" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D98" s="67">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E98" s="64" t="s">
-        <v>6825</v>
+        <v>6822</v>
       </c>
       <c r="F98" s="64" t="s">
-        <v>6826</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="99" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D99" s="67">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E99" s="64" t="s">
-        <v>6827</v>
+        <v>6824</v>
       </c>
       <c r="F99" s="64" t="s">
-        <v>6828</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="100" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D100" s="67">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="64" t="s">
-        <v>6829</v>
+        <v>6826</v>
       </c>
       <c r="F100" s="64" t="s">
-        <v>6830</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="101" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D101" s="67">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E101" s="64" t="s">
-        <v>6831</v>
+        <v>6828</v>
       </c>
       <c r="F101" s="64" t="s">
-        <v>6832</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="102" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D102" s="67">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E102" s="64" t="s">
-        <v>6833</v>
+        <v>6830</v>
       </c>
       <c r="F102" s="64" t="s">
-        <v>6834</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="103" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D103" s="67">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E103" s="64" t="s">
-        <v>6835</v>
+        <v>6832</v>
       </c>
       <c r="F103" s="64" t="s">
-        <v>6836</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D104" s="67">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E104" s="64" t="s">
-        <v>6837</v>
+        <v>6834</v>
       </c>
       <c r="F104" s="64" t="s">
-        <v>6838</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="105" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D105" s="67">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E105" s="64" t="s">
-        <v>6839</v>
+        <v>6836</v>
       </c>
       <c r="F105" s="64" t="s">
-        <v>6840</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D106" s="67">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E106" s="64" t="s">
-        <v>6841</v>
+        <v>6838</v>
       </c>
       <c r="F106" s="64" t="s">
-        <v>6842</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="107" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D107" s="67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E107" s="64" t="s">
-        <v>6843</v>
+        <v>6840</v>
       </c>
       <c r="F107" s="64" t="s">
-        <v>6844</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="D108" s="67">
+        <v>2008</v>
+      </c>
+      <c r="E108" s="64" t="s">
+        <v>6842</v>
+      </c>
+      <c r="F108" s="64" t="s">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D109" s="67">
+        <v>2009</v>
+      </c>
+      <c r="E109" s="64" t="s">
+        <v>6844</v>
+      </c>
+      <c r="F109" s="64" t="s">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D110" s="67">
         <v>2010</v>
       </c>
-      <c r="E108" s="64" t="s">
-        <v>6762</v>
-      </c>
-      <c r="F108" s="64" t="s">
+      <c r="E110" s="64" t="s">
         <v>6763</v>
       </c>
+      <c r="F110" s="64" t="s">
+        <v>6764</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N1:T2"/>
+    <mergeCell ref="D1:H2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F82" r:id="rId1" tooltip="Documentation de tableau (s’ouvre dans une nouvelle fenêtre)" display="javascript:OnTableSummary();" xr:uid="{E4E87299-B437-441B-8DEA-710DC377FB9A}"/>
-    <hyperlink ref="F83" r:id="rId2" display="javascript:OnSelectChildren(0,0);" xr:uid="{C2A74DA8-F825-42DE-BD66-F2DF91C8FB76}"/>
-    <hyperlink ref="F84" r:id="rId3" display="javascript:OnSelectChildren(0,1);" xr:uid="{F60AA15D-5710-4E81-AB0C-DCA85748DE99}"/>
-    <hyperlink ref="F85" r:id="rId4" display="javascript:OnSelectChildren(0,2);" xr:uid="{9E72DBC0-A165-4775-8867-00177D387B44}"/>
-    <hyperlink ref="F86" r:id="rId5" display="javascript:OnSelectChildren(0,3);" xr:uid="{34935E0E-D7B8-4948-BC95-64CA628B4C61}"/>
+    <hyperlink ref="F84" r:id="rId1" tooltip="Documentation de tableau (s’ouvre dans une nouvelle fenêtre)" display="javascript:OnTableSummary();" xr:uid="{E4E87299-B437-441B-8DEA-710DC377FB9A}"/>
+    <hyperlink ref="F85" r:id="rId2" display="javascript:OnSelectChildren(0,0);" xr:uid="{C2A74DA8-F825-42DE-BD66-F2DF91C8FB76}"/>
+    <hyperlink ref="F86" r:id="rId3" display="javascript:OnSelectChildren(0,1);" xr:uid="{F60AA15D-5710-4E81-AB0C-DCA85748DE99}"/>
+    <hyperlink ref="F87" r:id="rId4" display="javascript:OnSelectChildren(0,2);" xr:uid="{9E72DBC0-A165-4775-8867-00177D387B44}"/>
+    <hyperlink ref="F88" r:id="rId5" display="javascript:OnSelectChildren(0,3);" xr:uid="{34935E0E-D7B8-4948-BC95-64CA628B4C61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="O10:O11 O13 O16 O19 P14:Q14 P10:P11 P16:P19 R8 R10:R11 P13 R13:R14 R16:R19 Q10:Q13 Q15:Q19 S14 S10:S13 S15:S19" formula="1"/>
+    <ignoredError sqref="O12:O13 O15 O18 O21 P16:Q16 P12:P13 P18:P21 R10 R12:R13 P15 R15:R16 R18:R21 Q12:Q15 Q17:Q21 S16 S12:S15 S17:S21" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -72110,7 +72164,7 @@
   <dimension ref="B6:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72121,27 +72175,27 @@
   <sheetData>
     <row r="6" spans="2:10">
       <c r="E6" t="s">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="E7" t="s">
-        <v>6709</v>
+        <v>6710</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>6710</v>
+        <v>6711</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>6711</v>
+        <v>6712</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>6712</v>
+        <v>6713</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>6713</v>
+        <v>6714</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>6714</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -72170,26 +72224,26 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>6715</v>
+        <v>6716</v>
       </c>
       <c r="E9">
         <f>ROUND(-(1-POWER((I9/G9),(1/(H9-F9))))*100,J9)</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F9">
-        <f>Calculette!D6</f>
+        <f>Calculette!D8</f>
         <v>2008</v>
       </c>
       <c r="G9">
-        <f>Calculette!D8</f>
+        <f>Calculette!D10</f>
         <v>1084428</v>
       </c>
       <c r="H9">
-        <f>Calculette!F6</f>
+        <f>Calculette!F8</f>
         <v>2013</v>
       </c>
       <c r="I9">
-        <f>Calculette!F8</f>
+        <f>Calculette!F10</f>
         <v>1080771</v>
       </c>
       <c r="J9">
@@ -72198,26 +72252,26 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>6716</v>
+        <v>6717</v>
       </c>
       <c r="E10">
         <f>ROUND(-(1-POWER((I10/G10),(1/(H10-F10))))*100,J10)</f>
         <v>0.1</v>
       </c>
       <c r="F10">
-        <f>Calculette!F6</f>
+        <f>Calculette!F8</f>
         <v>2013</v>
       </c>
       <c r="G10">
-        <f>Calculette!F8</f>
+        <f>Calculette!F10</f>
         <v>1080771</v>
       </c>
       <c r="H10">
-        <f>Calculette!H6</f>
+        <f>Calculette!H8</f>
         <v>2018</v>
       </c>
       <c r="I10">
-        <f>Calculette!H8</f>
+        <f>Calculette!H10</f>
         <v>1086219</v>
       </c>
       <c r="J10">
@@ -72236,14 +72290,14 @@
         <v>2008</v>
       </c>
       <c r="G11" s="47">
-        <f>Calculette!D32</f>
+        <f>Calculette!D34</f>
         <v>2.1376340660293467</v>
       </c>
       <c r="H11">
         <v>2013</v>
       </c>
       <c r="I11" s="47">
-        <f>Calculette!F32</f>
+        <f>Calculette!F34</f>
         <v>2.0962782721910402</v>
       </c>
       <c r="J11">
@@ -72262,14 +72316,14 @@
         <v>2013</v>
       </c>
       <c r="G12" s="47">
-        <f>Calculette!F32</f>
+        <f>Calculette!F34</f>
         <v>2.0962782721910402</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
       <c r="I12" s="47">
-        <f>Calculette!H32</f>
+        <f>Calculette!H34</f>
         <v>2.0695397969658056</v>
       </c>
       <c r="J12">
@@ -72278,22 +72332,22 @@
     </row>
     <row r="16" spans="2:10">
       <c r="E16" t="s">
+        <v>6714</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6711</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6712</v>
+      </c>
+      <c r="H16" t="s">
         <v>6713</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>6710</v>
       </c>
-      <c r="G16" t="s">
-        <v>6711</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6712</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6709</v>
-      </c>
       <c r="J16" t="s">
-        <v>6714</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -72301,7 +72355,7 @@
         <v>190</v>
       </c>
       <c r="E17">
-        <f>ROUND(G17*POWER(((1+I17/100)),H17-F17),J17)</f>
+        <f t="shared" ref="E17:E25" si="0">ROUND(G17*POWER(((1+I17/100)),H17-F17),J17)</f>
         <v>100.1</v>
       </c>
       <c r="F17" s="33">
@@ -72325,21 +72379,21 @@
         <v>504</v>
       </c>
       <c r="E18">
-        <f>ROUND(G18*POWER(((1+I18/100)),H18-F18),J18)</f>
+        <f t="shared" si="0"/>
         <v>1088393</v>
       </c>
       <c r="F18">
         <v>2018</v>
       </c>
       <c r="G18">
-        <f>Calculette!H8</f>
+        <f>Calculette!H10</f>
         <v>1086219</v>
       </c>
       <c r="H18">
         <v>2020</v>
       </c>
       <c r="I18">
-        <f>Calculette!H4*100</f>
+        <f>Calculette!H6*100</f>
         <v>0.1</v>
       </c>
       <c r="J18">
@@ -72351,7 +72405,7 @@
         <v>506</v>
       </c>
       <c r="E19">
-        <f>ROUND(G19*POWER(((1+I19/100)),H19-F19),J19)</f>
+        <f t="shared" si="0"/>
         <v>1099326</v>
       </c>
       <c r="F19">
@@ -72367,7 +72421,7 @@
         <v>2030</v>
       </c>
       <c r="I19">
-        <f>Calculette!N4*100</f>
+        <f>Calculette!N6*100</f>
         <v>0.1</v>
       </c>
       <c r="J19">
@@ -72379,7 +72433,7 @@
         <v>508</v>
       </c>
       <c r="E20">
-        <f>ROUND(G20*POWER(((1+I20/100)),H20-F20),J20)</f>
+        <f t="shared" si="0"/>
         <v>1109260</v>
       </c>
       <c r="F20">
@@ -72395,7 +72449,7 @@
         <v>2040</v>
       </c>
       <c r="I20">
-        <f>Calculette!P4*100</f>
+        <f>Calculette!P6*100</f>
         <v>0.09</v>
       </c>
       <c r="J20">
@@ -72407,7 +72461,7 @@
         <v>510</v>
       </c>
       <c r="E21">
-        <f>ROUND(G21*POWER(((1+I21/100)),H21-F21),J21)</f>
+        <f t="shared" si="0"/>
         <v>1118166</v>
       </c>
       <c r="F21">
@@ -72423,7 +72477,7 @@
         <v>2050</v>
       </c>
       <c r="I21">
-        <f>Calculette!R4*100</f>
+        <f>Calculette!R6*100</f>
         <v>0.08</v>
       </c>
       <c r="J21">
@@ -72435,21 +72489,21 @@
         <v>512</v>
       </c>
       <c r="E22">
-        <f>ROUND(G22*POWER(((1+I22/100)),H22-F22),J22)</f>
+        <f t="shared" si="0"/>
         <v>2.0590000000000002</v>
       </c>
       <c r="F22">
         <v>2018</v>
       </c>
       <c r="G22">
-        <f>Calculette!H32</f>
+        <f>Calculette!H34</f>
         <v>2.0695397969658056</v>
       </c>
       <c r="H22">
         <v>2020</v>
       </c>
       <c r="I22">
-        <f>Calculette!H3*100</f>
+        <f>Calculette!H5*100</f>
         <v>-0.25600000000000001</v>
       </c>
       <c r="J22">
@@ -72461,7 +72515,7 @@
         <v>515</v>
       </c>
       <c r="E23">
-        <f>ROUND(G23*POWER(((1+I23/100)),H23-F23),J23)</f>
+        <f t="shared" si="0"/>
         <v>2.0070000000000001</v>
       </c>
       <c r="F23">
@@ -72477,7 +72531,7 @@
         <v>2030</v>
       </c>
       <c r="I23">
-        <f>Calculette!N3*100</f>
+        <f>Calculette!N5*100</f>
         <v>-0.25600000000000001</v>
       </c>
       <c r="J23">
@@ -72489,7 +72543,7 @@
         <v>517</v>
       </c>
       <c r="E24">
-        <f>ROUND(G24*POWER(((1+I24/100)),H24-F24),J24)</f>
+        <f t="shared" si="0"/>
         <v>1.956</v>
       </c>
       <c r="F24">
@@ -72505,7 +72559,7 @@
         <v>2040</v>
       </c>
       <c r="I24">
-        <f>Calculette!P3*100</f>
+        <f>Calculette!P5*100</f>
         <v>-0.25600000000000001</v>
       </c>
       <c r="J24">
@@ -72517,7 +72571,7 @@
         <v>519</v>
       </c>
       <c r="E25">
-        <f>ROUND(G25*POWER(((1+I25/100)),H25-F25),J25)</f>
+        <f t="shared" si="0"/>
         <v>1.9059999999999999</v>
       </c>
       <c r="F25">
@@ -72533,7 +72587,7 @@
         <v>2050</v>
       </c>
       <c r="I25">
-        <f>Calculette!R3*100</f>
+        <f>Calculette!R5*100</f>
         <v>-0.25600000000000001</v>
       </c>
       <c r="J25">
